--- a/DRM_Output/6_Delta_Analysis.xlsx
+++ b/DRM_Output/6_Delta_Analysis.xlsx
@@ -462,1702 +462,1702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3265.0400390625</v>
+        <v>3255.680078125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9809297492702392</v>
+        <v>0.6754627528162251</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01907025072976076</v>
+        <v>-0.3245372471837749</v>
       </c>
       <c r="D2" t="n">
-        <v>3142.765738971982</v>
+        <v>1343.679184188545</v>
       </c>
       <c r="E2" t="n">
-        <v>3938.67017982317</v>
+        <v>2137.301988555272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3281.530140269886</v>
+        <v>3272.122906802399</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9809848088728157</v>
+        <v>0.6769028912276995</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01901519112718431</v>
+        <v>-0.3230971087723005</v>
       </c>
       <c r="D3" t="n">
-        <v>3158.941824351193</v>
+        <v>1354.797556041144</v>
       </c>
       <c r="E3" t="n">
-        <v>3938.356163994995</v>
+        <v>2131.977531730472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3298.020241477273</v>
+        <v>3288.565735479798</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9810394582515587</v>
+        <v>0.6783331839426884</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01896054174844131</v>
+        <v>-0.3216668160573116</v>
       </c>
       <c r="D4" t="n">
-        <v>3175.118814279563</v>
+        <v>1365.939526768443</v>
       </c>
       <c r="E4" t="n">
-        <v>3938.043052715978</v>
+        <v>2126.676673780372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3314.510342684659</v>
+        <v>3305.008564157197</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9810937024158677</v>
+        <v>0.6797537244702896</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01890629758413231</v>
+        <v>-0.3202462755297104</v>
       </c>
       <c r="D5" t="n">
-        <v>3191.296702033881</v>
+        <v>1377.104935249699</v>
       </c>
       <c r="E5" t="n">
-        <v>3937.73083926291</v>
+        <v>2121.399253584229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3331.000443892045</v>
+        <v>3321.451392834596</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9811475462900076</v>
+        <v>0.6811646051756801</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01885245370999244</v>
+        <v>-0.3188353948243199</v>
       </c>
       <c r="D6" t="n">
-        <v>3207.475480972837</v>
+        <v>1388.293621892293</v>
       </c>
       <c r="E6" t="n">
-        <v>3937.41951699448</v>
+        <v>2116.145111549423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3347.490545099432</v>
+        <v>3337.894221511995</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9812009947149609</v>
+        <v>0.6825659172971019</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01879900528503908</v>
+        <v>-0.3174340827028981</v>
       </c>
       <c r="D7" t="n">
-        <v>3223.655144535633</v>
+        <v>1399.505428613063</v>
       </c>
       <c r="E7" t="n">
-        <v>3937.109079349889</v>
+        <v>2110.914089592795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3363.980646306818</v>
+        <v>3354.337050189394</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9812540524502325</v>
+        <v>0.6839577509625591</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01874594754976755</v>
+        <v>-0.3160422490374409</v>
       </c>
       <c r="D8" t="n">
-        <v>3239.835686240623</v>
+        <v>1410.740198819913</v>
       </c>
       <c r="E8" t="n">
-        <v>3936.799519847493</v>
+        <v>2105.706031122246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3380.470747514205</v>
+        <v>3370.779878866793</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9813067241756049</v>
+        <v>0.6853401952062286</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01869327582439506</v>
+        <v>-0.3146598047937714</v>
       </c>
       <c r="D9" t="n">
-        <v>3256.017099683991</v>
+        <v>1421.997777393688</v>
       </c>
       <c r="E9" t="n">
-        <v>3936.490832083474</v>
+        <v>2100.520781018622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3396.960848721591</v>
+        <v>3387.222707544192</v>
       </c>
       <c r="B10" t="n">
-        <v>0.981359014492849</v>
+        <v>0.6867133379845924</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01864098550715099</v>
+        <v>-0.3132866620154076</v>
       </c>
       <c r="D10" t="n">
-        <v>3272.199378538441</v>
+        <v>1433.278010670329</v>
       </c>
       <c r="E10" t="n">
-        <v>3936.183009730537</v>
+        <v>2095.358185617863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3413.450949928977</v>
+        <v>3403.665536221591</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9814109279273885</v>
+        <v>0.6880772661922949</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01858907207261151</v>
+        <v>-0.3119227338077051</v>
       </c>
       <c r="D11" t="n">
-        <v>3288.382516551929</v>
+        <v>1444.580746423274</v>
       </c>
       <c r="E11" t="n">
-        <v>3935.87604653664</v>
+        <v>2090.218092693412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3429.941051136364</v>
+        <v>3420.10836489899</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9814624689299231</v>
+        <v>0.6894320656777311</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01853753107007694</v>
+        <v>-0.3105679343222689</v>
       </c>
       <c r="D12" t="n">
-        <v>3304.566507546421</v>
+        <v>1455.905833846138</v>
       </c>
       <c r="E12" t="n">
-        <v>3935.569936323746</v>
+        <v>2085.100351438875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3446.43115234375</v>
+        <v>3436.551193576389</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9815136418780076</v>
+        <v>0.69077782125837</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0184863581219924</v>
+        <v>-0.30922217874163</v>
       </c>
       <c r="D13" t="n">
-        <v>3320.751345416669</v>
+        <v>1467.253123535624</v>
       </c>
       <c r="E13" t="n">
-        <v>3935.264672986607</v>
+        <v>2080.004812450961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3462.921253551136</v>
+        <v>3452.994022253788</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9815644510775922</v>
+        <v>0.6921146167358193</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01843554892240784</v>
+        <v>-0.3078853832641807</v>
       </c>
       <c r="D14" t="n">
-        <v>3336.937024129015</v>
+        <v>1478.622467474703</v>
       </c>
       <c r="E14" t="n">
-        <v>3934.960250491567</v>
+        <v>2074.931327712643</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3479.411354758523</v>
+        <v>3469.436850931187</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9816149007645217</v>
+        <v>0.6934425349106353</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01838509923547826</v>
+        <v>-0.3065574650893647</v>
       </c>
       <c r="D15" t="n">
-        <v>3353.123537720232</v>
+        <v>1490.013719016036</v>
       </c>
       <c r="E15" t="n">
-        <v>3934.656662875397</v>
+        <v>2069.879750576577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3495.901455965909</v>
+        <v>3485.879679608586</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9816649951059978</v>
+        <v>0.694761657596882</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01833500489400219</v>
+        <v>-0.305238342403118</v>
       </c>
       <c r="D16" t="n">
-        <v>3369.310880296371</v>
+        <v>1501.426732865624</v>
       </c>
       <c r="E16" t="n">
-        <v>3934.35390424415</v>
+        <v>2064.849935748765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3512.391557173295</v>
+        <v>3502.322508285985</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9817147382020032</v>
+        <v>0.6960720656364459</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01828526179799683</v>
+        <v>-0.3039279343635541</v>
       </c>
       <c r="D17" t="n">
-        <v>3385.499046031646</v>
+        <v>1512.861365066713</v>
       </c>
       <c r="E17" t="n">
-        <v>3934.051968772038</v>
+        <v>2059.841739272455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3528.881658380682</v>
+        <v>3518.765336963384</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9817641340866903</v>
+        <v>0.6973738389131091</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01823586591330972</v>
+        <v>-0.3026261610868909</v>
       </c>
       <c r="D18" t="n">
-        <v>3401.688029167334</v>
+        <v>1524.317472983921</v>
       </c>
       <c r="E18" t="n">
-        <v>3933.75085070034</v>
+        <v>2054.855018512264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3545.371759588068</v>
+        <v>3535.208165640783</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9818131867297348</v>
+        <v>0.6986670563663875</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01818681327026517</v>
+        <v>-0.3013329436336125</v>
       </c>
       <c r="D19" t="n">
-        <v>3417.877824010704</v>
+        <v>1535.7949152876</v>
       </c>
       <c r="E19" t="n">
-        <v>3933.450544336324</v>
+        <v>2049.889632138544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3561.861860795455</v>
+        <v>3551.650994318182</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9818619000376561</v>
+        <v>0.6999517960051351</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01813809996234395</v>
+        <v>-0.3000482039948649</v>
       </c>
       <c r="D20" t="n">
-        <v>3434.068424933962</v>
+        <v>1547.293551938421</v>
       </c>
       <c r="E20" t="n">
-        <v>3933.151044052195</v>
+        <v>2044.945440111966</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3578.351962002841</v>
+        <v>3568.093822995581</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9819102778551028</v>
+        <v>0.7012281349209226</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01808972214489724</v>
+        <v>-0.2987718650790774</v>
       </c>
       <c r="D21" t="n">
-        <v>3450.259826373219</v>
+        <v>1558.813244172183</v>
       </c>
       <c r="E21" t="n">
-        <v>3932.852344284067</v>
+        <v>2040.022303668329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3594.842063210227</v>
+        <v>3584.53665167298</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9819583239661088</v>
+        <v>0.7024961493011905</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01804167603389117</v>
+        <v>-0.2975038506988095</v>
       </c>
       <c r="D22" t="n">
-        <v>3466.452022827488</v>
+        <v>1570.353854484834</v>
       </c>
       <c r="E22" t="n">
-        <v>3932.554439530949</v>
+        <v>2035.120085303581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3611.332164417614</v>
+        <v>3600.979480350379</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9820060420953165</v>
+        <v>0.7037559144421853</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0179939579046835</v>
+        <v>-0.2962440855578147</v>
       </c>
       <c r="D23" t="n">
-        <v>3482.645008857686</v>
+        <v>1581.915246617718</v>
       </c>
       <c r="E23" t="n">
-        <v>3932.257324353761</v>
+        <v>2030.238648759066</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3627.822265625</v>
+        <v>3617.422309027778</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9820534359091709</v>
+        <v>0.7050075047616777</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01794656409082906</v>
+        <v>-0.2949924952383223</v>
       </c>
       <c r="D24" t="n">
-        <v>3498.838779085668</v>
+        <v>1593.497285543021</v>
       </c>
       <c r="E24" t="n">
-        <v>3931.960993374356</v>
+        <v>2025.37785900697</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3644.312366832386</v>
+        <v>3633.865137705177</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9821005090170841</v>
+        <v>0.7062509938114718</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01789949098291588</v>
+        <v>-0.2937490061885282</v>
       </c>
       <c r="D25" t="n">
-        <v>3515.033328193279</v>
+        <v>1605.099837449431</v>
       </c>
       <c r="E25" t="n">
-        <v>3931.665441274581</v>
+        <v>2020.537582235982</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3660.802468039773</v>
+        <v>3650.307966382576</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9821472649725715</v>
+        <v>0.7074864542897057</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01785273502742846</v>
+        <v>-0.2925135457102943</v>
       </c>
       <c r="D26" t="n">
-        <v>3531.228650921421</v>
+        <v>1616.722769728001</v>
       </c>
       <c r="E26" t="n">
-        <v>3931.370662795336</v>
+        <v>2015.717685837153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3677.292569247159</v>
+        <v>3666.750795059975</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9821937072743603</v>
+        <v>0.7087139580529482</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01780629272563972</v>
+        <v>-0.2912860419470518</v>
       </c>
       <c r="D27" t="n">
-        <v>3547.424742069139</v>
+        <v>1628.365950958214</v>
       </c>
       <c r="E27" t="n">
-        <v>3931.076652735669</v>
+        <v>2010.918038389966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3693.782670454545</v>
+        <v>3683.193623737374</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9822398393674715</v>
+        <v>0.7099335761280972</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0177601606325285</v>
+        <v>-0.2900664238719028</v>
       </c>
       <c r="D28" t="n">
-        <v>3563.621596492731</v>
+        <v>1640.029250894237</v>
       </c>
       <c r="E28" t="n">
-        <v>3930.783405951874</v>
+        <v>2006.138509648591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3710.272771661932</v>
+        <v>3699.636452414773</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9822856646442755</v>
+        <v>0.7111453787240797</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01771433535572453</v>
+        <v>-0.2888546212759203</v>
       </c>
       <c r="D29" t="n">
-        <v>3579.819209104865</v>
+        <v>1651.712540451382</v>
       </c>
       <c r="E29" t="n">
-        <v>3930.490917356621</v>
+        <v>2001.378970528335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3726.762872869318</v>
+        <v>3716.079281092172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9823311864455229</v>
+        <v>0.7123494352433616</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01766881355447714</v>
+        <v>-0.2876505647566384</v>
       </c>
       <c r="D30" t="n">
-        <v>3596.017574873723</v>
+        <v>1663.415691692746</v>
       </c>
       <c r="E30" t="n">
-        <v>3930.199181918093</v>
+        <v>1996.639293092301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3743.252974076705</v>
+        <v>3732.522109769571</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9823764080613502</v>
+        <v>0.7135458142932662</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01762359193864982</v>
+        <v>-0.2864541857067338</v>
       </c>
       <c r="D31" t="n">
-        <v>3612.216688822161</v>
+        <v>1675.13857781605</v>
       </c>
       <c r="E31" t="n">
-        <v>3929.908194659145</v>
+        <v>1991.919350538207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3759.743075284091</v>
+        <v>3748.96493844697</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9824213327322622</v>
+        <v>0.7147345836971095</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01757866726773782</v>
+        <v>-0.2852654163028905</v>
       </c>
       <c r="D32" t="n">
-        <v>3628.416546026876</v>
+        <v>1686.881073140651</v>
       </c>
       <c r="E32" t="n">
-        <v>3929.617950656473</v>
+        <v>1987.219017185408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3776.233176491477</v>
+        <v>3765.407767124369</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9824659636500905</v>
+        <v>0.7159158105051504</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01753403634990947</v>
+        <v>-0.2840841894948496</v>
       </c>
       <c r="D33" t="n">
-        <v>3644.617141617598</v>
+        <v>1698.64305309474</v>
       </c>
       <c r="E33" t="n">
-        <v>3929.32844503981</v>
+        <v>1982.538168462099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3792.723277698864</v>
+        <v>3781.850595801768</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9825103039589299</v>
+        <v>0.7170895610053654</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01748969604107009</v>
+        <v>-0.2829104389946346</v>
       </c>
       <c r="D34" t="n">
-        <v>3660.818470776298</v>
+        <v>1710.424394202726</v>
       </c>
       <c r="E34" t="n">
-        <v>3929.039672991123</v>
+        <v>1977.876680892686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3809.21337890625</v>
+        <v>3798.293424479167</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9825543567560532</v>
+        <v>0.7182559007340448</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01744564324394682</v>
+        <v>-0.2817440992659552</v>
       </c>
       <c r="D35" t="n">
-        <v>3677.020528736407</v>
+        <v>1722.224974072785</v>
       </c>
       <c r="E35" t="n">
-        <v>3928.751629743845</v>
+        <v>1973.234432085345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3825.703480113636</v>
+        <v>3814.736253156566</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9825981250928034</v>
+        <v>0.7194148944862183</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01740187490719658</v>
+        <v>-0.2805851055137817</v>
       </c>
       <c r="D36" t="n">
-        <v>3693.223310782045</v>
+        <v>1734.044671384584</v>
       </c>
       <c r="E36" t="n">
-        <v>3928.464310582097</v>
+        <v>1968.611300719745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3842.193581321023</v>
+        <v>3831.179081833965</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9826416119754668</v>
+        <v>0.7205666063259112</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01735838802453316</v>
+        <v>-0.2794333936740888</v>
       </c>
       <c r="D37" t="n">
-        <v>3709.426812247283</v>
+        <v>1745.883365877182</v>
       </c>
       <c r="E37" t="n">
-        <v>3928.177710839948</v>
+        <v>1964.007166534944</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3858.683682528409</v>
+        <v>3847.621910511364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9826848203661246</v>
+        <v>0.7217110995962336</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01731517963387541</v>
+        <v>-0.2782889004037664</v>
       </c>
       <c r="D38" t="n">
-        <v>3725.631028515395</v>
+        <v>1757.740938337091</v>
       </c>
       <c r="E38" t="n">
-        <v>3927.891825900675</v>
+        <v>1959.421910317454</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3875.173783735795</v>
+        <v>3864.064739188763</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9827277531834856</v>
+        <v>0.722848436929307</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0172722468165144</v>
+        <v>-0.277151563070693</v>
       </c>
       <c r="D39" t="n">
-        <v>3741.835955018146</v>
+        <v>1769.617270586503</v>
       </c>
       <c r="E39" t="n">
-        <v>3927.606651196038</v>
+        <v>1954.855413889468</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3891.663884943182</v>
+        <v>3880.507567866161</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9827704133036995</v>
+        <v>0.7239786802560313</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01722958669630048</v>
+        <v>-0.2760213197439687</v>
       </c>
       <c r="D40" t="n">
-        <v>3758.041587235075</v>
+        <v>1781.512245471682</v>
       </c>
       <c r="E40" t="n">
-        <v>3927.322182205581</v>
+        <v>1950.307560097248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3908.153986150568</v>
+        <v>3896.950396543561</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9828128035611516</v>
+        <v>0.7251018908156938</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01718719643884836</v>
+        <v>-0.2748981091843062</v>
       </c>
       <c r="D41" t="n">
-        <v>3774.247920692805</v>
+        <v>1793.425746851512</v>
       </c>
       <c r="E41" t="n">
-        <v>3927.038414455924</v>
+        <v>1945.778232799679</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3924.644087357955</v>
+        <v>3913.39322522096</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9828549267492398</v>
+        <v>0.7262181291654237</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0171450732507602</v>
+        <v>-0.2737818708345763</v>
       </c>
       <c r="D42" t="n">
-        <v>3790.454950964359</v>
+        <v>1805.357659586202</v>
       </c>
       <c r="E42" t="n">
-        <v>3926.755343520092</v>
+        <v>1941.267316856969</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3941.134188565341</v>
+        <v>3929.836053898359</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9828967856211333</v>
+        <v>0.7273274551894959</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01710321437886675</v>
+        <v>-0.2726725448105041</v>
       </c>
       <c r="D43" t="n">
-        <v>3806.662673668492</v>
+        <v>1817.307869526147</v>
       </c>
       <c r="E43" t="n">
-        <v>3926.472965016838</v>
+        <v>1936.774698119516</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3957.624289772727</v>
+        <v>3946.278882575758</v>
       </c>
       <c r="B44" t="n">
-        <v>0.982938382890515</v>
+        <v>0.7284299281084855</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01706161710948495</v>
+        <v>-0.2715700718915145</v>
       </c>
       <c r="D44" t="n">
-        <v>3822.87108446903</v>
+        <v>1829.276263500942</v>
       </c>
       <c r="E44" t="n">
-        <v>3926.191274609991</v>
+        <v>1932.300263416912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3974.114390980114</v>
+        <v>3962.721711253157</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9829797212323065</v>
+        <v>0.7295256064882751</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01702027876769352</v>
+        <v>-0.2704743935117249</v>
       </c>
       <c r="D45" t="n">
-        <v>3839.080179074229</v>
+        <v>1841.26272930854</v>
       </c>
       <c r="E45" t="n">
-        <v>3925.910268007804</v>
+        <v>1927.843900547111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3990.6044921875</v>
+        <v>3979.164539930555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9830208032833775</v>
+        <v>0.7306145482489206</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01697919671662251</v>
+        <v>-0.2693854517510794</v>
       </c>
       <c r="D46" t="n">
-        <v>3855.289953236142</v>
+        <v>1853.267155704558</v>
       </c>
       <c r="E46" t="n">
-        <v>3925.62994096233</v>
+        <v>1923.405498265731</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4007.094593394886</v>
+        <v>3995.607368607954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9830616316432386</v>
+        <v>0.7316968106733743</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01693836835676144</v>
+        <v>-0.2683031893266257</v>
       </c>
       <c r="D47" t="n">
-        <v>3871.50040274999</v>
+        <v>1865.289432391739</v>
       </c>
       <c r="E47" t="n">
-        <v>3925.350289268792</v>
+        <v>1918.984946275512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4023.584694602273</v>
+        <v>4012.050197285354</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9831022088747198</v>
+        <v>0.7327724504160705</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01689779112528023</v>
+        <v>-0.2672275495839295</v>
       </c>
       <c r="D48" t="n">
-        <v>3887.711523453562</v>
+        <v>1877.329450009534</v>
       </c>
       <c r="E48" t="n">
-        <v>3925.071308764977</v>
+        <v>1914.582135215908</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4040.074795809659</v>
+        <v>4028.493025962753</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9831425375046329</v>
+        <v>0.7338415235113749</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01685746249536713</v>
+        <v>-0.2661584764886251</v>
       </c>
       <c r="D49" t="n">
-        <v>3903.923311226607</v>
+        <v>1889.387100123849</v>
       </c>
       <c r="E49" t="n">
-        <v>3924.792995330635</v>
+        <v>1910.196956652824</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4056.564897017045</v>
+        <v>4044.935854640152</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9831826200244203</v>
+        <v>0.7349040853819003</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01681737997557975</v>
+        <v>-0.2650959146180997</v>
       </c>
       <c r="D50" t="n">
-        <v>3920.135761990251</v>
+        <v>1901.462275216912</v>
       </c>
       <c r="E50" t="n">
-        <v>3924.515344886893</v>
+        <v>1905.829303068487</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4073.054998224432</v>
+        <v>4061.37868331755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9832224588907883</v>
+        <v>0.7359601908466915</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0167775411092117</v>
+        <v>-0.2640398091533085</v>
       </c>
       <c r="D51" t="n">
-        <v>3936.348871706415</v>
+        <v>1913.554868677278</v>
       </c>
       <c r="E51" t="n">
-        <v>3924.238353395671</v>
+        <v>1901.479067851455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4089.545099431818</v>
+        <v>4077.82151199495</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9832620565263285</v>
+        <v>0.7370098941292814</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01673794347367152</v>
+        <v>-0.2629901058707186</v>
       </c>
       <c r="D52" t="n">
-        <v>3952.562636377251</v>
+        <v>1925.66477478998</v>
       </c>
       <c r="E52" t="n">
-        <v>3923.962016859122</v>
+        <v>1897.146145286758</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4106.035200639204</v>
+        <v>4094.264340672348</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9833014153201235</v>
+        <v>0.7380532488656205</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0166985846798765</v>
+        <v>-0.2619467511343795</v>
       </c>
       <c r="D53" t="n">
-        <v>3968.777052044583</v>
+        <v>1937.791888726796</v>
       </c>
       <c r="E53" t="n">
-        <v>3923.686331319067</v>
+        <v>1892.830430546175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4122.525301846591</v>
+        <v>4110.707169349747</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9833405376283411</v>
+        <v>0.7390903081118821</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01665946237165894</v>
+        <v>-0.2609096918881179</v>
       </c>
       <c r="D54" t="n">
-        <v>3984.992114789358</v>
+        <v>1949.936106536653</v>
       </c>
       <c r="E54" t="n">
-        <v>3923.411292856455</v>
+        <v>1888.531819678633</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4139.015403053977</v>
+        <v>4127.149998027146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9833794257748149</v>
+        <v>0.7401211243521458</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.01662057422518515</v>
+        <v>-0.2598788756478542</v>
       </c>
       <c r="D55" t="n">
-        <v>4001.207820731106</v>
+        <v>1962.097325136159</v>
       </c>
       <c r="E55" t="n">
-        <v>3923.136897590817</v>
+        <v>1884.25020960074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4155.505504261364</v>
+        <v>4143.592826704546</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9834180820516126</v>
+        <v>0.7411457495059609</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.01658191794838737</v>
+        <v>-0.2588542504940391</v>
       </c>
       <c r="D56" t="n">
-        <v>4017.424166027422</v>
+        <v>1974.275442300256</v>
       </c>
       <c r="E56" t="n">
-        <v>3922.863141679746</v>
+        <v>1879.985498087438</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4171.99560546875</v>
+        <v>4160.035655381945</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9834565087195923</v>
+        <v>0.7421642349357916</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01654349128040766</v>
+        <v>-0.2578357650642084</v>
       </c>
       <c r="D57" t="n">
-        <v>4033.641146873431</v>
+        <v>1986.470356653001</v>
       </c>
       <c r="E57" t="n">
-        <v>3922.590021318369</v>
+        <v>1875.737583762784</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4188.485706676136</v>
+        <v>4176.478484059344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9834947080089468</v>
+        <v>0.7431766314543483</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01650529199105322</v>
+        <v>-0.2568233685456517</v>
       </c>
       <c r="D58" t="n">
-        <v>4049.858759501292</v>
+        <v>1998.681967658465</v>
       </c>
       <c r="E58" t="n">
-        <v>3922.317532738844</v>
+        <v>1871.506366090848</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4204.975807883523</v>
+        <v>4192.921312736742</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9835326821197357</v>
+        <v>0.7441829893318025</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01646731788026434</v>
+        <v>-0.2558170106681975</v>
       </c>
       <c r="D59" t="n">
-        <v>4066.07700017969</v>
+        <v>2010.910175611752</v>
       </c>
       <c r="E59" t="n">
-        <v>3922.045672209855</v>
+        <v>1867.291745366737</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4221.465909090909</v>
+        <v>4209.364141414141</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9835704332224079</v>
+        <v>0.7451833583028933</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.01642956677759211</v>
+        <v>-0.2548166416971067</v>
       </c>
       <c r="D60" t="n">
-        <v>4082.295865213342</v>
+        <v>2023.154881630142</v>
       </c>
       <c r="E60" t="n">
-        <v>3921.774436036121</v>
+        <v>1863.093622707728</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4237.956010298295</v>
+        <v>4225.80697009154</v>
       </c>
       <c r="B61" t="n">
-        <v>0.983607963458311</v>
+        <v>0.7461777875739209</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.01639203654168897</v>
+        <v>-0.2538222124260791</v>
       </c>
       <c r="D61" t="n">
-        <v>4098.515350942516</v>
+        <v>2035.415987644337</v>
       </c>
       <c r="E61" t="n">
-        <v>3921.50382055791</v>
+        <v>1858.911900044524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4254.446111505682</v>
+        <v>4242.249798768939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.983645274940192</v>
+        <v>0.7471663258296359</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.01635472505980795</v>
+        <v>-0.2528336741703641</v>
       </c>
       <c r="D62" t="n">
-        <v>4114.73545374256</v>
+        <v>2047.693396389835</v>
       </c>
       <c r="E62" t="n">
-        <v>3921.233822150566</v>
+        <v>1854.746480112623</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4270.936212713068</v>
+        <v>4258.692627446339</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9836823697526857</v>
+        <v>0.7481490212400195</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01631763024731425</v>
+        <v>-0.2518509787599805</v>
       </c>
       <c r="D63" t="n">
-        <v>4130.956170023418</v>
+        <v>2059.987011398405</v>
       </c>
       <c r="E63" t="n">
-        <v>3920.964437224039</v>
+        <v>1850.597266443794</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4287.426313920454</v>
+        <v>4275.135456123737</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9837192499527944</v>
+        <v>0.7491259214669619</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01628075004720564</v>
+        <v>-0.2508740785330381</v>
       </c>
       <c r="D64" t="n">
-        <v>4147.177496229191</v>
+        <v>2072.296736989683</v>
       </c>
       <c r="E64" t="n">
-        <v>3920.695662222425</v>
+        <v>1846.464163357673</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4303.916415127841</v>
+        <v>4291.578284801137</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9837559175703564</v>
+        <v>0.7500970736708381</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01624408242964359</v>
+        <v>-0.2499029263291619</v>
       </c>
       <c r="D65" t="n">
-        <v>4163.399428837672</v>
+        <v>2084.622478262869</v>
       </c>
       <c r="E65" t="n">
-        <v>3920.42749362352</v>
+        <v>1842.34707595346</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4320.406516335227</v>
+        <v>4308.021113478535</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9837923746085063</v>
+        <v>0.7510625245169824</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01620762539149367</v>
+        <v>-0.2489374754830176</v>
       </c>
       <c r="D66" t="n">
-        <v>4179.621964359905</v>
+        <v>2096.964141088532</v>
       </c>
       <c r="E66" t="n">
-        <v>3920.159927938366</v>
+        <v>1838.245910101725</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4336.896617542614</v>
+        <v>4324.463942155934</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9838286230441241</v>
+        <v>0.7520223201820653</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01617137695587589</v>
+        <v>-0.2479776798179347</v>
       </c>
       <c r="D67" t="n">
-        <v>4195.845099339749</v>
+        <v>2109.321632100527</v>
       </c>
       <c r="E67" t="n">
-        <v>3919.892961710824</v>
+        <v>1834.160572436321</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4353.38671875</v>
+        <v>4340.906770833333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9838646648282765</v>
+        <v>0.7529765063603733</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0161353351717235</v>
+        <v>-0.2470234936396267</v>
       </c>
       <c r="D68" t="n">
-        <v>4212.068830353451</v>
+        <v>2121.69485868801</v>
       </c>
       <c r="E68" t="n">
-        <v>3919.626591517139</v>
+        <v>1830.090970346405</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4369.876819957386</v>
+        <v>4357.349599510732</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9839005018866483</v>
+        <v>0.753925128269993</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01609949811335165</v>
+        <v>-0.246074871730007</v>
       </c>
       <c r="D69" t="n">
-        <v>4228.293154009217</v>
+        <v>2134.083728987555</v>
       </c>
       <c r="E69" t="n">
-        <v>3919.360813965518</v>
+        <v>1826.03701196855</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4386.366921164773</v>
+        <v>4373.792428188131</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9839361361199656</v>
+        <v>0.7548682306589021</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01606386388003445</v>
+        <v>-0.2451317693410979</v>
       </c>
       <c r="D70" t="n">
-        <v>4244.518066946805</v>
+        <v>2146.488151875376</v>
       </c>
       <c r="E70" t="n">
-        <v>3919.095625695721</v>
+        <v>1821.998606178973</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4402.857022372159</v>
+        <v>4390.23525686553</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9839715694044093</v>
+        <v>0.7558058578109679</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.01602843059559067</v>
+        <v>-0.2441941421890321</v>
       </c>
       <c r="D71" t="n">
-        <v>4260.743565837111</v>
+        <v>2158.908036959649</v>
       </c>
       <c r="E71" t="n">
-        <v>3918.831023378641</v>
+        <v>1817.975662585847</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4419.347123579546</v>
+        <v>4406.678085542929</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9840068035920225</v>
+        <v>0.7567380535518562</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.01599319640797747</v>
+        <v>-0.2432619464481438</v>
       </c>
       <c r="D72" t="n">
-        <v>4276.969647381773</v>
+        <v>2171.343294572926</v>
       </c>
       <c r="E72" t="n">
-        <v>3918.567003715915</v>
+        <v>1813.968091521724</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4435.837224786932</v>
+        <v>4423.120914220328</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9840418405111069</v>
+        <v>0.7576648612548508</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.01595815948889312</v>
+        <v>-0.2423351387451492</v>
       </c>
       <c r="D73" t="n">
-        <v>4293.196308312768</v>
+        <v>2183.793835764646</v>
       </c>
       <c r="E73" t="n">
-        <v>3918.303563439524</v>
+        <v>1809.975804036045</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4452.327325994318</v>
+        <v>4439.563742897727</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9840766819666132</v>
+        <v>0.7585863238465855</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.01592331803338676</v>
+        <v>-0.2414136761534145</v>
       </c>
       <c r="D74" t="n">
-        <v>4309.423545392035</v>
+        <v>2196.259572293754</v>
       </c>
       <c r="E74" t="n">
-        <v>3918.040699311404</v>
+        <v>1805.998711887754</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4468.817427201704</v>
+        <v>4456.006571575126</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9841113297405231</v>
+        <v>0.7595024838126913</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.01588867025947693</v>
+        <v>-0.2404975161873087</v>
       </c>
       <c r="D75" t="n">
-        <v>4325.651355411079</v>
+        <v>2208.740416621393</v>
       </c>
       <c r="E75" t="n">
-        <v>3917.778408123063</v>
+        <v>1802.036727537994</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4485.307528409091</v>
+        <v>4472.449400252525</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9841457855922234</v>
+        <v>0.7604133832033575</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.01585421440777657</v>
+        <v>-0.2395866167966425</v>
       </c>
       <c r="D76" t="n">
-        <v>4341.879735190612</v>
+        <v>2221.236281903701</v>
       </c>
       <c r="E76" t="n">
-        <v>3917.51668669521</v>
+        <v>1798.089764142903</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4501.797629616477</v>
+        <v>4488.892228929924</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9841800512588734</v>
+        <v>0.7613190636388121</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01581994874112658</v>
+        <v>-0.2386809363611879</v>
       </c>
       <c r="D77" t="n">
-        <v>4358.10868158017</v>
+        <v>2233.747081984703</v>
       </c>
       <c r="E77" t="n">
-        <v>3917.255531877381</v>
+        <v>1794.157735546506</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4518.287730823864</v>
+        <v>4505.335057607323</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9842141284557638</v>
+        <v>0.7622195663147189</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.01578587154423616</v>
+        <v>-0.2377804336852811</v>
       </c>
       <c r="D78" t="n">
-        <v>4374.338191457754</v>
+        <v>2246.272731389274</v>
       </c>
       <c r="E78" t="n">
-        <v>3916.994940547578</v>
+        <v>1790.240556273679</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4534.77783203125</v>
+        <v>4521.777886284722</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9842480188766701</v>
+        <v>0.763114932007496</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.01575198112332987</v>
+        <v>-0.236885067992504</v>
       </c>
       <c r="D79" t="n">
-        <v>4390.568261729473</v>
+        <v>2258.813145316215</v>
       </c>
       <c r="E79" t="n">
-        <v>3916.734909611911</v>
+        <v>1786.338141523222</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4551.267933238636</v>
+        <v>4538.220714962121</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9842817241941977</v>
+        <v>0.7640052010795533</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.01571827580580232</v>
+        <v>-0.2359947989204467</v>
       </c>
       <c r="D80" t="n">
-        <v>4406.798889329191</v>
+        <v>2271.368239631391</v>
       </c>
       <c r="E80" t="n">
-        <v>3916.475436004243</v>
+        <v>1782.450407160997</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4567.758034446023</v>
+        <v>4554.66354363952</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9843152460601211</v>
+        <v>0.7648904134844556</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01568475393987889</v>
+        <v>-0.2351095865155444</v>
       </c>
       <c r="D81" t="n">
-        <v>4423.030071218184</v>
+        <v>2283.937930860971</v>
       </c>
       <c r="E81" t="n">
-        <v>3916.21651668585</v>
+        <v>1778.577269713179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4584.248135653409</v>
+        <v>4571.106372316919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.984348586105716</v>
+        <v>0.7657706087720074</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01565141389428404</v>
+        <v>-0.2342293912279926</v>
       </c>
       <c r="D82" t="n">
-        <v>4439.261804384792</v>
+        <v>2296.52213618475</v>
       </c>
       <c r="E82" t="n">
-        <v>3915.958148645072</v>
+        <v>1774.718646359558</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4600.738236860796</v>
+        <v>4587.549200994318</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9843817459420852</v>
+        <v>0.7666458260932636</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.01561825405791484</v>
+        <v>-0.2333541739067364</v>
       </c>
       <c r="D83" t="n">
-        <v>4455.494085844095</v>
+        <v>2309.120773429545</v>
       </c>
       <c r="E83" t="n">
-        <v>3915.700328896986</v>
+        <v>1770.874454926955</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4617.228338068182</v>
+        <v>4603.992029671717</v>
       </c>
       <c r="B84" t="n">
-        <v>0.984414727160478</v>
+        <v>0.7675161042054666</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01558527283952205</v>
+        <v>-0.2324838957945334</v>
       </c>
       <c r="D84" t="n">
-        <v>4471.726912637565</v>
+        <v>2321.733761062687</v>
       </c>
       <c r="E84" t="n">
-        <v>3915.443054483071</v>
+        <v>1767.044613882698</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4633.718439275568</v>
+        <v>4620.434858349116</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9844475313326037</v>
+        <v>0.7683814814769112</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01555246866739635</v>
+        <v>-0.2316185185230888</v>
       </c>
       <c r="D85" t="n">
-        <v>4487.960281832762</v>
+        <v>2334.361018185577</v>
       </c>
       <c r="E85" t="n">
-        <v>3915.186322470883</v>
+        <v>1763.229042328189</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4650.208540482954</v>
+        <v>4636.877687026515</v>
       </c>
       <c r="B86" t="n">
-        <v>0.984480160010939</v>
+        <v>0.7692419958917389</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01551983998906104</v>
+        <v>-0.2307580041082611</v>
       </c>
       <c r="D86" t="n">
-        <v>4504.194190523003</v>
+        <v>2347.002464527339</v>
       </c>
       <c r="E86" t="n">
-        <v>3914.930129953737</v>
+        <v>1759.427659992552</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4666.698641690341</v>
+        <v>4653.320515703914</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9845126147290288</v>
+        <v>0.7700976850546604</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01548738527097115</v>
+        <v>-0.2299023149453396</v>
       </c>
       <c r="D87" t="n">
-        <v>4520.428635827047</v>
+        <v>2359.658020438533</v>
       </c>
       <c r="E87" t="n">
-        <v>3914.674474050394</v>
+        <v>1755.640387226346</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4683.188742897727</v>
+        <v>4669.763344381313</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9845448970017832</v>
+        <v>0.770948586195612</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01545510299821684</v>
+        <v>-0.229051413804388</v>
       </c>
       <c r="D88" t="n">
-        <v>4536.663614888787</v>
+        <v>2372.327606884962</v>
       </c>
       <c r="E88" t="n">
-        <v>3914.419351904748</v>
+        <v>1751.867144995377</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4699.678844105114</v>
+        <v>4686.206173058712</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9845770083257657</v>
+        <v>0.7717947361743427</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01542299167423433</v>
+        <v>-0.2282052638256573</v>
       </c>
       <c r="D89" t="n">
-        <v>4552.899124876947</v>
+        <v>2385.011145441546</v>
       </c>
       <c r="E89" t="n">
-        <v>3914.164760685521</v>
+        <v>1748.10785487456</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4716.1689453125</v>
+        <v>4702.64900173611</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9846089501794795</v>
+        <v>0.7726361714849348</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01539104982052053</v>
+        <v>-0.2273638285150652</v>
       </c>
       <c r="D90" t="n">
-        <v>4569.135162984779</v>
+        <v>2397.708558286266</v>
       </c>
       <c r="E90" t="n">
-        <v>3913.910697585966</v>
+        <v>1744.362439041884</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4732.659046519886</v>
+        <v>4719.09183041351</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9846407240236453</v>
+        <v>0.7734729282602606</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.01535927597635467</v>
+        <v>-0.2265270717397394</v>
       </c>
       <c r="D91" t="n">
-        <v>4585.371726429768</v>
+        <v>2410.419768194203</v>
       </c>
       <c r="E91" t="n">
-        <v>3913.65715982357</v>
+        <v>1740.63082027242</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4749.149147727273</v>
+        <v>4735.534659090908</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9846723313014764</v>
+        <v>0.7743050422763724</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.01532766869852364</v>
+        <v>-0.2256949577236276</v>
       </c>
       <c r="D92" t="n">
-        <v>4601.608812453345</v>
+        <v>2423.144698531612</v>
       </c>
       <c r="E92" t="n">
-        <v>3913.40414463976</v>
+        <v>1736.912921932432</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4765.639248934659</v>
+        <v>4751.977487768308</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9847037734389464</v>
+        <v>0.7751325489568325</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01529622656105356</v>
+        <v>-0.2248674510431675</v>
       </c>
       <c r="D93" t="n">
-        <v>4617.846418320593</v>
+        <v>2435.883273250116</v>
       </c>
       <c r="E93" t="n">
-        <v>3913.151649299622</v>
+        <v>1733.208667973536</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4782.129350142046</v>
+        <v>4768.420316445707</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9847350518450537</v>
+        <v>0.7759554833769777</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01526494815494628</v>
+        <v>-0.2240445166230223</v>
       </c>
       <c r="D94" t="n">
-        <v>4634.084541319973</v>
+        <v>2448.635416880923</v>
       </c>
       <c r="E94" t="n">
-        <v>3912.899671091615</v>
+        <v>1729.517982926944</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4798.619451349432</v>
+        <v>4784.863145123106</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9847661679120799</v>
+        <v>0.7767738802681257</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01523383208792006</v>
+        <v>-0.2232261197318743</v>
       </c>
       <c r="D95" t="n">
-        <v>4650.323178763038</v>
+        <v>2461.401054529153</v>
       </c>
       <c r="E95" t="n">
-        <v>3912.648207327295</v>
+        <v>1725.840791897774</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4815.109552556818</v>
+        <v>4801.305973800505</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9847971230158442</v>
+        <v>0.7775877740217181</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.01520287698415579</v>
+        <v>-0.2224122259782819</v>
       </c>
       <c r="D96" t="n">
-        <v>4666.562327984168</v>
+        <v>2474.1801118682</v>
       </c>
       <c r="E96" t="n">
-        <v>3912.397255341039</v>
+        <v>1722.177020559422</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4831.599653764204</v>
+        <v>4817.748802477903</v>
       </c>
       <c r="B97" t="n">
-        <v>0.984827918515952</v>
+        <v>0.7783971986934077</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.01517208148404803</v>
+        <v>-0.2216028013065923</v>
       </c>
       <c r="D97" t="n">
-        <v>4682.801986340295</v>
+        <v>2486.972515134188</v>
       </c>
       <c r="E97" t="n">
-        <v>3912.14681248978</v>
+        <v>1718.526595148013</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4848.089754971591</v>
+        <v>4834.191631155303</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9848585557560404</v>
+        <v>0.7792021880070857</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.01514144424395958</v>
+        <v>-0.2207978119929143</v>
       </c>
       <c r="D98" t="n">
-        <v>4699.04215121064</v>
+        <v>2499.778191120482</v>
       </c>
       <c r="E98" t="n">
-        <v>3911.896876152736</v>
+        <v>1714.889442456906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4864.579856178977</v>
+        <v>4850.634459832701</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9848890360640181</v>
+        <v>0.7800027753588512</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.01511096393598188</v>
+        <v>-0.2199972246411488</v>
       </c>
       <c r="D99" t="n">
-        <v>4715.282819996445</v>
+        <v>2512.597067172256</v>
       </c>
       <c r="E99" t="n">
-        <v>3911.647443731155</v>
+        <v>1711.265489831281</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4881.069957386364</v>
+        <v>4867.077288510101</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9849193607523011</v>
+        <v>0.780798993820926</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.01508063924769887</v>
+        <v>-0.219201006179074</v>
       </c>
       <c r="D100" t="n">
-        <v>4731.523990120729</v>
+        <v>2525.429071181148</v>
       </c>
       <c r="E100" t="n">
-        <v>3911.398512648054</v>
+        <v>1707.654665162775</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4897.56005859375</v>
+        <v>4883.5201171875</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9849495311180444</v>
+        <v>0.7815908761455128</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0150504688819556</v>
+        <v>-0.2184091238544872</v>
       </c>
       <c r="D101" t="n">
-        <v>4747.765659028022</v>
+        <v>2538.274131579958</v>
       </c>
       <c r="E101" t="n">
-        <v>3911.150080347961</v>
+        <v>1704.056896884185</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/6_Delta_Analysis.xlsx
+++ b/DRM_Output/6_Delta_Analysis.xlsx
@@ -465,16 +465,16 @@
         <v>3255.680078125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6754627528162251</v>
+        <v>0.001647910469285998</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3245372471837749</v>
+        <v>-0.998352089530714</v>
       </c>
       <c r="D2" t="n">
-        <v>1343.679184188545</v>
+        <v>0.1108846617828272</v>
       </c>
       <c r="E2" t="n">
-        <v>2137.301988555272</v>
+        <v>793.7336890285096</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>3272.122906802399</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6769028912276995</v>
+        <v>0.002052383053884239</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3230971087723005</v>
+        <v>-0.9979476169461158</v>
       </c>
       <c r="D3" t="n">
-        <v>1354.797556041144</v>
+        <v>0.1411985848111854</v>
       </c>
       <c r="E3" t="n">
-        <v>2131.977531730472</v>
+        <v>777.3211742741387</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3288.565735479798</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6783331839426884</v>
+        <v>0.002542275176274653</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3216668160573116</v>
+        <v>-0.9974577248237253</v>
       </c>
       <c r="D4" t="n">
-        <v>1365.939526768443</v>
+        <v>0.1788464929541149</v>
       </c>
       <c r="E4" t="n">
-        <v>2126.676673780372</v>
+        <v>760.9159935048833</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3305.008564157197</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6797537244702896</v>
+        <v>0.003132302729658884</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3202462755297104</v>
+        <v>-0.9968676972703411</v>
       </c>
       <c r="D5" t="n">
-        <v>1377.104935249699</v>
+        <v>0.225351477568621</v>
       </c>
       <c r="E5" t="n">
-        <v>2121.399253584229</v>
+        <v>744.5196698120985</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>3321.451392834596</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6811646051756801</v>
+        <v>0.003839008902388822</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3188353948243199</v>
+        <v>-0.9961609910976111</v>
       </c>
       <c r="D6" t="n">
-        <v>1388.293621892293</v>
+        <v>0.2824934848156246</v>
       </c>
       <c r="E6" t="n">
-        <v>2116.145111549423</v>
+        <v>728.1339831419468</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>3337.894221511995</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6825659172971019</v>
+        <v>0.004680857333609048</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3174340827028981</v>
+        <v>-0.995319142666391</v>
       </c>
       <c r="D7" t="n">
-        <v>1399.505428613063</v>
+        <v>0.3523401510764099</v>
       </c>
       <c r="E7" t="n">
-        <v>2110.914089592795</v>
+        <v>711.7610011308088</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>3354.337050189394</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6839577509625591</v>
+        <v>0.005678305742350774</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3160422490374409</v>
+        <v>-0.9943216942576493</v>
       </c>
       <c r="D8" t="n">
-        <v>1410.740198819913</v>
+        <v>0.4372790158223303</v>
       </c>
       <c r="E8" t="n">
-        <v>2105.706031122246</v>
+        <v>695.4031113181554</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>3370.779878866793</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6853401952062286</v>
+        <v>0.006853855430445576</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3146598047937714</v>
+        <v>-0.9931461445695544</v>
       </c>
       <c r="D9" t="n">
-        <v>1421.997777393688</v>
+        <v>0.5400507531388072</v>
       </c>
       <c r="E9" t="n">
-        <v>2100.520781018622</v>
+        <v>679.063054378073</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>3387.222707544192</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6867133379845924</v>
+        <v>0.008232072061563891</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3132866620154076</v>
+        <v>-0.9917679279384362</v>
       </c>
       <c r="D10" t="n">
-        <v>1433.278010670329</v>
+        <v>0.6637829873048346</v>
       </c>
       <c r="E10" t="n">
-        <v>2095.358185617863</v>
+        <v>662.7439579348397</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>3403.665536221591</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6880772661922949</v>
+        <v>0.009839573263057396</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3119227338077051</v>
+        <v>-0.9901604267369426</v>
       </c>
       <c r="D11" t="n">
-        <v>1444.580746423274</v>
+        <v>0.8120241832131327</v>
       </c>
       <c r="E11" t="n">
-        <v>2090.218092693412</v>
+        <v>646.4493704533493</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>3420.10836489899</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6894320656777311</v>
+        <v>0.01170497889574114</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3105679343222689</v>
+        <v>-0.9882950211042588</v>
       </c>
       <c r="D12" t="n">
-        <v>1455.905833846138</v>
+        <v>0.9887770314254851</v>
       </c>
       <c r="E12" t="n">
-        <v>2085.100351438875</v>
+        <v>630.183294624163</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>3436.551193576389</v>
       </c>
       <c r="B13" t="n">
-        <v>0.69077782125837</v>
+        <v>0.01385882029612854</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.30922217874163</v>
+        <v>-0.9861411797038715</v>
       </c>
       <c r="D13" t="n">
-        <v>1467.253123535624</v>
+        <v>1.198530682897903</v>
       </c>
       <c r="E13" t="n">
-        <v>2080.004812450961</v>
+        <v>613.9502195982359</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>3452.994022253788</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6921146167358193</v>
+        <v>0.01633340541721634</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3078853832641807</v>
+        <v>-0.9836665945827837</v>
       </c>
       <c r="D14" t="n">
-        <v>1478.622467474703</v>
+        <v>1.446291132530114</v>
       </c>
       <c r="E14" t="n">
-        <v>2074.931327712643</v>
+        <v>597.7551513704689</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>3469.436850931187</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6934425349106353</v>
+        <v>0.01916263757287392</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3065574650893647</v>
+        <v>-0.980837362427126</v>
       </c>
       <c r="D15" t="n">
-        <v>1490.013719016036</v>
+        <v>1.737609006351676</v>
       </c>
       <c r="E15" t="n">
-        <v>2069.879750576577</v>
+        <v>581.603640566892</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>3485.879679608586</v>
       </c>
       <c r="B16" t="n">
-        <v>0.694761657596882</v>
+        <v>0.02238178641595999</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.305238342403118</v>
+        <v>-0.97761821358404</v>
       </c>
       <c r="D16" t="n">
-        <v>1501.426732865624</v>
+        <v>2.078603976829783</v>
       </c>
       <c r="E16" t="n">
-        <v>2064.849935748765</v>
+        <v>565.5018068599711</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>3502.322508285985</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6960720656364459</v>
+        <v>0.02602721083374508</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3039279343635541</v>
+        <v>-0.973972789166255</v>
       </c>
       <c r="D17" t="n">
-        <v>1512.861365066713</v>
+        <v>2.475985016766245</v>
       </c>
       <c r="E17" t="n">
-        <v>2059.841739272455</v>
+        <v>549.4563592225086</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>3518.765336963384</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6973738389131091</v>
+        <v>0.03013603460209968</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3026261610868909</v>
+        <v>-0.9698639653979003</v>
       </c>
       <c r="D18" t="n">
-        <v>1524.317472983921</v>
+        <v>2.937065706437977</v>
       </c>
       <c r="E18" t="n">
-        <v>2054.855018512264</v>
+        <v>533.4746112347816</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>3535.208165640783</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6986670563663875</v>
+        <v>0.03474577687260771</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3013329436336125</v>
+        <v>-0.9652542231273923</v>
       </c>
       <c r="D19" t="n">
-        <v>1535.7949152876</v>
+        <v>3.469773832529469</v>
       </c>
       <c r="E19" t="n">
-        <v>2049.889632138544</v>
+        <v>517.5644906834737</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>3551.650994318182</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6999517960051351</v>
+        <v>0.03989394083984595</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3000482039948649</v>
+        <v>-0.960106059160154</v>
       </c>
       <c r="D20" t="n">
-        <v>1547.293551938421</v>
+        <v>4.082654561944167</v>
       </c>
       <c r="E20" t="n">
-        <v>2044.945440111966</v>
+        <v>501.7345427354894</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>3568.093822995581</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7012281349209226</v>
+        <v>0.04561756521136193</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2987718650790774</v>
+        <v>-0.954382434788638</v>
       </c>
       <c r="D21" t="n">
-        <v>1558.813244172183</v>
+        <v>4.784866539133219</v>
       </c>
       <c r="E21" t="n">
-        <v>2040.022303668329</v>
+        <v>485.9939260352799</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>3584.53665167298</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7024961493011905</v>
+        <v>0.05195274433983273</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2975038506988095</v>
+        <v>-0.9480472556601672</v>
       </c>
       <c r="D22" t="n">
-        <v>1570.353854484834</v>
+        <v>5.586170341833025</v>
       </c>
       <c r="E22" t="n">
-        <v>2035.120085303581</v>
+        <v>470.3524011605805</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>3600.979480350379</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7037559144421853</v>
+        <v>0.05893412403403402</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2962440855578147</v>
+        <v>-0.941065875965966</v>
       </c>
       <c r="D23" t="n">
-        <v>1581.915246617718</v>
+        <v>6.496908836103216</v>
       </c>
       <c r="E23" t="n">
-        <v>2030.238648759066</v>
+        <v>454.8203109774508</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>3617.422309027778</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7050075047616777</v>
+        <v>0.06659438110178786</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2949924952383223</v>
+        <v>-0.9334056188982122</v>
       </c>
       <c r="D24" t="n">
-        <v>1593.497285543021</v>
+        <v>7.527979095644667</v>
       </c>
       <c r="E24" t="n">
-        <v>2025.37785900697</v>
+        <v>439.4085525595938</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>3633.865137705177</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7062509938114718</v>
+        <v>0.07496369555553536</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2937490061885282</v>
+        <v>-0.9250363044444646</v>
       </c>
       <c r="D25" t="n">
-        <v>1605.099837449431</v>
+        <v>8.690795690250241</v>
       </c>
       <c r="E25" t="n">
-        <v>2020.537582235982</v>
+        <v>424.1285404768005</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>3650.307966382576</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7074864542897057</v>
+        <v>0.08406922509495851</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2925135457102943</v>
+        <v>-0.9159307749050415</v>
       </c>
       <c r="D26" t="n">
-        <v>1616.722769728001</v>
+        <v>9.99724530099212</v>
       </c>
       <c r="E26" t="n">
-        <v>2015.717685837153</v>
+        <v>408.9921614101431</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>3666.750795059975</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7087139580529482</v>
+        <v>0.09393459194193082</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2912860419470518</v>
+        <v>-0.9060654080580692</v>
       </c>
       <c r="D27" t="n">
-        <v>1628.365950958214</v>
+        <v>11.45963278195529</v>
       </c>
       <c r="E27" t="n">
-        <v>2010.918038389966</v>
+        <v>394.0117202137076</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>3683.193623737374</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7099335761280972</v>
+        <v>0.1045793923182975</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2900664238719028</v>
+        <v>-0.8954206076817024</v>
       </c>
       <c r="D28" t="n">
-        <v>1640.029250894237</v>
+        <v>13.09061895610517</v>
       </c>
       <c r="E28" t="n">
-        <v>2006.138509648591</v>
+        <v>379.1998777104591</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>3699.636452414773</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7111453787240797</v>
+        <v>0.1160187388115738</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2888546212759203</v>
+        <v>-0.8839812611884261</v>
       </c>
       <c r="D29" t="n">
-        <v>1651.712540451382</v>
+        <v>14.90315060207519</v>
       </c>
       <c r="E29" t="n">
-        <v>2001.378970528335</v>
+        <v>364.56958067903</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>3716.079281092172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7123494352433616</v>
+        <v>0.1282628455608914</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2876505647566384</v>
+        <v>-0.8717371544391086</v>
       </c>
       <c r="D30" t="n">
-        <v>1663.415691692746</v>
+        <v>16.91038325491809</v>
       </c>
       <c r="E30" t="n">
-        <v>1996.639293092301</v>
+        <v>350.1339846544734</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>3732.522109769571</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7135458142932662</v>
+        <v>0.141316665617469</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2864541857067338</v>
+        <v>-0.858683334382531</v>
       </c>
       <c r="D31" t="n">
-        <v>1675.13857781605</v>
+        <v>19.1255976027802</v>
       </c>
       <c r="E31" t="n">
-        <v>1991.919350538207</v>
+        <v>335.9063703249367</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>3748.96493844697</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7147345836971095</v>
+        <v>0.155179589001358</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2852654163028905</v>
+        <v>-0.8448204109986419</v>
       </c>
       <c r="D32" t="n">
-        <v>1686.881073140651</v>
+        <v>21.56211040875814</v>
       </c>
       <c r="E32" t="n">
-        <v>1987.219017185408</v>
+        <v>321.9000544535156</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>3765.407767124369</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7159158105051504</v>
+        <v>0.1698452089084984</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2840841894948496</v>
+        <v>-0.8301547910915016</v>
       </c>
       <c r="D33" t="n">
-        <v>1698.64305309474</v>
+        <v>24.23318101886787</v>
       </c>
       <c r="E33" t="n">
-        <v>1982.538168462099</v>
+        <v>308.1282963862268</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>3781.850595801768</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7170895610053654</v>
+        <v>0.1853011622463473</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2829104389946346</v>
+        <v>-0.8146988377536527</v>
       </c>
       <c r="D34" t="n">
-        <v>1710.424394202726</v>
+        <v>27.15191462936298</v>
       </c>
       <c r="E34" t="n">
-        <v>1977.876680892686</v>
+        <v>294.6042013193228</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>3798.293424479167</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7182559007340448</v>
+        <v>0.2015290492264208</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2817440992659552</v>
+        <v>-0.7984709507735792</v>
       </c>
       <c r="D35" t="n">
-        <v>1722.224974072785</v>
+        <v>30.33116357654797</v>
       </c>
       <c r="E35" t="n">
-        <v>1973.234432085345</v>
+        <v>281.3406215891082</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>3814.736253156566</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7194148944862183</v>
+        <v>0.2185044351577135</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2805851055137817</v>
+        <v>-0.7814955648422865</v>
       </c>
       <c r="D36" t="n">
-        <v>1734.044671384584</v>
+        <v>33.78342797709706</v>
       </c>
       <c r="E36" t="n">
-        <v>1968.611300719745</v>
+        <v>268.3500573122578</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>3831.179081833965</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7205666063259112</v>
+        <v>0.2361969359098673</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2794333936740888</v>
+        <v>-0.7638030640901328</v>
       </c>
       <c r="D37" t="n">
-        <v>1745.883365877182</v>
+        <v>37.52075708490293</v>
       </c>
       <c r="E37" t="n">
-        <v>1964.007166534944</v>
+        <v>255.6445577426657</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>3847.621910511364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7217110995962336</v>
+        <v>0.2545703867957125</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2782889004037664</v>
+        <v>-0.7454296132042875</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.740938337091</v>
+        <v>41.55465274053597</v>
       </c>
       <c r="E38" t="n">
-        <v>1959.421910317454</v>
+        <v>243.2356247208995</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>3864.064739188763</v>
       </c>
       <c r="B39" t="n">
-        <v>0.722848436929307</v>
+        <v>0.2735830929068248</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.277151563070693</v>
+        <v>-0.7264169070931752</v>
       </c>
       <c r="D39" t="n">
-        <v>1769.617270586503</v>
+        <v>45.89597627111971</v>
       </c>
       <c r="E39" t="n">
-        <v>1954.855413889468</v>
+        <v>231.1341195740843</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>3880.507567866161</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7239786802560313</v>
+        <v>0.2931881572699488</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2760213197439687</v>
+        <v>-0.7068118427300512</v>
       </c>
       <c r="D40" t="n">
-        <v>1781.512245471682</v>
+        <v>50.55486015231259</v>
       </c>
       <c r="E40" t="n">
-        <v>1950.307560097248</v>
+        <v>219.3501747778787</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>3896.950396543561</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7251018908156938</v>
+        <v>0.313333881621115</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2748981091843062</v>
+        <v>-0.686666118378885</v>
       </c>
       <c r="D41" t="n">
-        <v>1793.425746851512</v>
+        <v>55.54062567128085</v>
       </c>
       <c r="E41" t="n">
-        <v>1945.778232799679</v>
+        <v>207.8931116194476</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>3913.39322522096</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7262181291654237</v>
+        <v>0.3339642331590011</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2737818708345763</v>
+        <v>-0.6660357668409989</v>
       </c>
       <c r="D42" t="n">
-        <v>1805.357659586202</v>
+        <v>60.86170773198501</v>
       </c>
       <c r="E42" t="n">
-        <v>1941.267316856969</v>
+        <v>196.7713650027526</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>3929.836053898359</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7273274551894959</v>
+        <v>0.3550193693756056</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2726725448105041</v>
+        <v>-0.6449806306243944</v>
       </c>
       <c r="D43" t="n">
-        <v>1817.307869526147</v>
+        <v>66.52558782429628</v>
       </c>
       <c r="E43" t="n">
-        <v>1936.774698119516</v>
+        <v>185.992416417665</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>3946.278882575758</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7284299281084855</v>
+        <v>0.3764362120005424</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2715700718915145</v>
+        <v>-0.6235637879994576</v>
       </c>
       <c r="D44" t="n">
-        <v>1829.276263500942</v>
+        <v>72.53873603951274</v>
       </c>
       <c r="E44" t="n">
-        <v>1932.300263416912</v>
+        <v>175.5627359554824</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>3962.721711253157</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7295256064882751</v>
+        <v>0.3981490602584833</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2704743935117249</v>
+        <v>-0.6018509397415167</v>
       </c>
       <c r="D45" t="n">
-        <v>1841.26272930854</v>
+        <v>78.90656286025296</v>
       </c>
       <c r="E45" t="n">
-        <v>1927.843900547111</v>
+        <v>165.4877340988237</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>3979.164539930555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7306145482489206</v>
+        <v>0.420090233043335</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2693854517510794</v>
+        <v>-0.5799097669566651</v>
       </c>
       <c r="D46" t="n">
-        <v>1853.267155704558</v>
+        <v>85.6333812863179</v>
       </c>
       <c r="E46" t="n">
-        <v>1923.405498265731</v>
+        <v>155.7717238474902</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>3995.607368607954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7316968106733743</v>
+        <v>0.4421907292659807</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2683031893266257</v>
+        <v>-0.5578092707340192</v>
       </c>
       <c r="D47" t="n">
-        <v>1865.289432391739</v>
+        <v>92.7223796839769</v>
       </c>
       <c r="E47" t="n">
-        <v>1918.984946275512</v>
+        <v>146.4178935677496</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>4012.050197285354</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7327724504160705</v>
+        <v>0.4643808955355974</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2672275495839295</v>
+        <v>-0.5356191044644026</v>
       </c>
       <c r="D48" t="n">
-        <v>1877.329450009534</v>
+        <v>100.1756055683384</v>
       </c>
       <c r="E48" t="n">
-        <v>1914.582135215908</v>
+        <v>137.4282907747124</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>4028.493025962753</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7338415235113749</v>
+        <v>0.4865910904814061</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2661584764886251</v>
+        <v>-0.5134089095185939</v>
       </c>
       <c r="D49" t="n">
-        <v>1889.387100123849</v>
+        <v>107.9939603511261</v>
       </c>
       <c r="E49" t="n">
-        <v>1910.196956652824</v>
+        <v>128.8038168801004</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>4044.935854640152</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7349040853819003</v>
+        <v>0.5087523353990518</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2650959146180997</v>
+        <v>-0.4912476646009482</v>
       </c>
       <c r="D50" t="n">
-        <v>1901.462275216912</v>
+        <v>116.1772049131275</v>
       </c>
       <c r="E50" t="n">
-        <v>1905.829303068487</v>
+        <v>120.5442327647033</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>4061.37868331755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7359601908466915</v>
+        <v>0.5307969414947769</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2640398091533085</v>
+        <v>-0.4692030585052231</v>
       </c>
       <c r="D51" t="n">
-        <v>1913.554868677278</v>
+        <v>124.7239756955589</v>
       </c>
       <c r="E51" t="n">
-        <v>1901.479067851455</v>
+        <v>112.6481748697361</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>4077.82151199495</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7370098941292814</v>
+        <v>0.5526591047771322</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2629901058707186</v>
+        <v>-0.4473408952228678</v>
       </c>
       <c r="D52" t="n">
-        <v>1925.66477478998</v>
+        <v>133.6318108507653</v>
       </c>
       <c r="E52" t="n">
-        <v>1897.146145286758</v>
+        <v>105.1131813475424</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>4094.264340672348</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7380532488656205</v>
+        <v>0.5742754605821978</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2619467511343795</v>
+        <v>-0.4257245394178022</v>
       </c>
       <c r="D53" t="n">
-        <v>1937.791888726796</v>
+        <v>142.8971858530372</v>
       </c>
       <c r="E53" t="n">
-        <v>1892.830430546175</v>
+        <v>97.93572767241653</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>4110.707169349747</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7390903081118821</v>
+        <v>0.5955855907833528</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2609096918881179</v>
+        <v>-0.4044144092166472</v>
       </c>
       <c r="D54" t="n">
-        <v>1949.936106536653</v>
+        <v>152.5155578471426</v>
       </c>
       <c r="E54" t="n">
-        <v>1888.531819678633</v>
+        <v>91.11127098912289</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>4127.149998027146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7401211243521458</v>
+        <v>0.6165324778978412</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2598788756478542</v>
+        <v>-0.3834675221021588</v>
       </c>
       <c r="D55" t="n">
-        <v>1962.097325136159</v>
+        <v>162.4814179073296</v>
       </c>
       <c r="E55" t="n">
-        <v>1884.25020960074</v>
+        <v>84.63430237191051</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>4143.592826704546</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7411457495059609</v>
+        <v>0.6370629015264925</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2588542504940391</v>
+        <v>-0.3629370984735075</v>
       </c>
       <c r="D56" t="n">
-        <v>1974.275442300256</v>
+        <v>172.7883502944301</v>
       </c>
       <c r="E56" t="n">
-        <v>1879.985498087438</v>
+        <v>78.49840608161185</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>4160.035655381945</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7421642349357916</v>
+        <v>0.6571277738169935</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2578357650642084</v>
+        <v>-0.3428722261830065</v>
       </c>
       <c r="D57" t="n">
-        <v>1986.470356653001</v>
+        <v>183.4290977339115</v>
       </c>
       <c r="E57" t="n">
-        <v>1875.737583762784</v>
+        <v>72.6963248436939</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>4176.478484059344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7431766314543483</v>
+        <v>0.6766824118934854</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.2568233685456517</v>
+        <v>-0.3233175881065146</v>
       </c>
       <c r="D58" t="n">
-        <v>1998.681967658465</v>
+        <v>194.3956316936383</v>
       </c>
       <c r="E58" t="n">
-        <v>1871.506366090848</v>
+        <v>67.22003012602181</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>4192.921312736742</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7441829893318025</v>
+        <v>0.695686746416542</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2558170106681975</v>
+        <v>-0.304313253583458</v>
       </c>
       <c r="D59" t="n">
-        <v>2010.910175611752</v>
+        <v>205.6792266163752</v>
       </c>
       <c r="E59" t="n">
-        <v>1867.291745366737</v>
+        <v>62.06079637136031</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>4209.364141414141</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7451833583028933</v>
+        <v>0.714105466601223</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2548166416971067</v>
+        <v>-0.285894533398777</v>
       </c>
       <c r="D60" t="n">
-        <v>2023.154881630142</v>
+        <v>217.2705370579965</v>
       </c>
       <c r="E60" t="n">
-        <v>1863.093622707728</v>
+        <v>57.20927813558251</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>4225.80697009154</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7461777875739209</v>
+        <v>0.7319081031037175</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2538222124260791</v>
+        <v>-0.2680918968962825</v>
       </c>
       <c r="D61" t="n">
-        <v>2035.415987644337</v>
+        <v>229.1596766967505</v>
       </c>
       <c r="E61" t="n">
-        <v>1858.911900044524</v>
+        <v>52.65558909693777</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>4242.249798768939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7471663258296359</v>
+        <v>0.7490690511699031</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2528336741703641</v>
+        <v>-0.2509309488300969</v>
       </c>
       <c r="D62" t="n">
-        <v>2047.693396389835</v>
+        <v>241.3362982103858</v>
       </c>
       <c r="E62" t="n">
-        <v>1854.746480112623</v>
+        <v>48.38938193317381</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>4258.692627446339</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7481490212400195</v>
+        <v>0.7655675373065698</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2518509787599805</v>
+        <v>-0.2344324626934302</v>
       </c>
       <c r="D63" t="n">
-        <v>2059.987011398405</v>
+        <v>253.7896730645753</v>
       </c>
       <c r="E63" t="n">
-        <v>1850.597266443794</v>
+        <v>44.39992810996375</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>4275.135456123737</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7491259214669619</v>
+        <v>0.7813875334771925</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2508740785330381</v>
+        <v>-0.2186124665228075</v>
       </c>
       <c r="D64" t="n">
-        <v>2072.296736989683</v>
+        <v>266.5087703159529</v>
       </c>
       <c r="E64" t="n">
-        <v>1846.464163357673</v>
+        <v>40.6761966839432</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>4291.578284801137</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7500970736708381</v>
+        <v>0.796517623431952</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.2499029263291619</v>
+        <v>-0.203482376568048</v>
       </c>
       <c r="D65" t="n">
-        <v>2084.622478262869</v>
+        <v>279.4823336041063</v>
       </c>
       <c r="E65" t="n">
-        <v>1842.34707595346</v>
+        <v>37.20693129469669</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>4308.021113478535</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7510625245169824</v>
+        <v>0.8109508262532323</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.2489374754830176</v>
+        <v>-0.1890491737467677</v>
       </c>
       <c r="D66" t="n">
-        <v>2096.964141088532</v>
+        <v>292.6989555866603</v>
       </c>
       <c r="E66" t="n">
-        <v>1838.245910101725</v>
+        <v>33.98072459985258</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>4324.463942155934</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7520223201820653</v>
+        <v>0.8246843825338568</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2479776798179347</v>
+        <v>-0.1753156174661432</v>
       </c>
       <c r="D67" t="n">
-        <v>2109.321632100527</v>
+        <v>306.1471491581628</v>
       </c>
       <c r="E67" t="n">
-        <v>1834.160572436321</v>
+        <v>30.98608949395532</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>4340.906770833333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7529765063603733</v>
+        <v>0.8377195088096923</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.2470234936396267</v>
+        <v>-0.1622804911903077</v>
       </c>
       <c r="D68" t="n">
-        <v>2121.69485868801</v>
+        <v>319.8154148843341</v>
       </c>
       <c r="E68" t="n">
-        <v>1830.090970346405</v>
+        <v>28.21152654272839</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>4357.349599510732</v>
       </c>
       <c r="B69" t="n">
-        <v>0.753925128269993</v>
+        <v>0.8500611259481243</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.246074871730007</v>
+        <v>-0.1499388740518757</v>
       </c>
       <c r="D69" t="n">
-        <v>2134.083728987555</v>
+        <v>333.692304176579</v>
       </c>
       <c r="E69" t="n">
-        <v>1826.03701196855</v>
+        <v>25.64558715757403</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>4373.792428188131</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7548682306589021</v>
+        <v>0.8617175671583623</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.2451317693410979</v>
+        <v>-0.1382824328416377</v>
       </c>
       <c r="D70" t="n">
-        <v>2146.488151875376</v>
+        <v>347.7664778251883</v>
       </c>
       <c r="E70" t="n">
-        <v>1821.998606178973</v>
+        <v>23.27693212878432</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>4390.23525686553</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7558058578109679</v>
+        <v>0.8727002711500298</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2441941421890321</v>
+        <v>-0.1272997288499702</v>
       </c>
       <c r="D71" t="n">
-        <v>2158.908036959649</v>
+        <v>362.0267596018775</v>
       </c>
       <c r="E71" t="n">
-        <v>1817.975662585847</v>
+        <v>21.094385228075</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>4406.678085542929</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7567380535518562</v>
+        <v>0.8830234657356113</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2432619464481438</v>
+        <v>-0.1169765342643887</v>
       </c>
       <c r="D72" t="n">
-        <v>2171.343294572926</v>
+        <v>376.4621847313533</v>
       </c>
       <c r="E72" t="n">
-        <v>1813.968091521724</v>
+        <v>19.08698168015201</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>4423.120914220328</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7576648612548508</v>
+        <v>0.8927038468637408</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.2423351387451492</v>
+        <v>-0.1072961531362592</v>
       </c>
       <c r="D73" t="n">
-        <v>2183.793835764646</v>
+        <v>391.0620431162561</v>
       </c>
       <c r="E73" t="n">
-        <v>1809.975804036045</v>
+        <v>17.24401138765541</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>4439.563742897727</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7585863238465855</v>
+        <v>0.9017602576981396</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.2414136761534145</v>
+        <v>-0.09823974230186039</v>
       </c>
       <c r="D74" t="n">
-        <v>2196.259572293754</v>
+        <v>405.8159172788187</v>
       </c>
       <c r="E74" t="n">
-        <v>1805.998711887754</v>
+        <v>15.55505687281953</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>4456.006571575126</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7595024838126913</v>
+        <v>0.9102133719353704</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2404975161873087</v>
+        <v>-0.08978662806462956</v>
       </c>
       <c r="D75" t="n">
-        <v>2208.740416621393</v>
+        <v>420.7137150551057</v>
       </c>
       <c r="E75" t="n">
-        <v>1802.036727537994</v>
+        <v>14.01002597170742</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>4472.449400252525</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7604133832033575</v>
+        <v>0.9180853850973519</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2395866167966425</v>
+        <v>-0.08191461490264806</v>
       </c>
       <c r="D76" t="n">
-        <v>2221.236281903701</v>
+        <v>435.7456971428524</v>
       </c>
       <c r="E76" t="n">
-        <v>1798.089764142903</v>
+        <v>12.5991793820545</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>4488.892228929924</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7613190636388121</v>
+        <v>0.9253997170549276</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.2386809363611879</v>
+        <v>-0.07460028294507237</v>
       </c>
       <c r="D77" t="n">
-        <v>2233.747081984703</v>
+        <v>450.9024996614926</v>
       </c>
       <c r="E77" t="n">
-        <v>1794.157735546506</v>
+        <v>11.31315322329556</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>4505.335057607323</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7622195663147189</v>
+        <v>0.9321807285489903</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.2377804336852811</v>
+        <v>-0.06781927145100974</v>
       </c>
       <c r="D78" t="n">
-        <v>2246.272731389274</v>
+        <v>466.1751519324603</v>
       </c>
       <c r="E78" t="n">
-        <v>1790.240556273679</v>
+        <v>10.14297681686554</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>4521.777886284722</v>
       </c>
       <c r="B79" t="n">
-        <v>0.763114932007496</v>
+        <v>0.9384534539868551</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.236885067992504</v>
+        <v>-0.06154654601314491</v>
       </c>
       <c r="D79" t="n">
-        <v>2258.813145316215</v>
+        <v>481.5550897293142</v>
       </c>
       <c r="E79" t="n">
-        <v>1786.338141523222</v>
+        <v>9.080085936320302</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>4538.220714962121</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7640052010795533</v>
+        <v>0.9442433523136144</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.2359947989204467</v>
+        <v>-0.05575664768638555</v>
       </c>
       <c r="D80" t="n">
-        <v>2271.368239631391</v>
+        <v>497.0341642807261</v>
       </c>
       <c r="E80" t="n">
-        <v>1782.450407160997</v>
+        <v>8.116331810331957</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>4554.66354363952</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7648904134844556</v>
+        <v>0.9495760772995764</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.2351095865155444</v>
+        <v>-0.05042392270042362</v>
       </c>
       <c r="D81" t="n">
-        <v>2283.937930860971</v>
+        <v>512.604647335188</v>
       </c>
       <c r="E81" t="n">
-        <v>1778.577269713179</v>
+        <v>7.243986187395677</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>4571.106372316919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7657706087720074</v>
+        <v>0.9544772681526168</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2342293912279926</v>
+        <v>-0.0455227318473832</v>
       </c>
       <c r="D82" t="n">
-        <v>2296.52213618475</v>
+        <v>528.2592326147401</v>
       </c>
       <c r="E82" t="n">
-        <v>1774.718646359558</v>
+        <v>6.455742789548765</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>4587.549200994318</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7666458260932636</v>
+        <v>0.9589723609639975</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2333541739067364</v>
+        <v>-0.04102763903600248</v>
       </c>
       <c r="D83" t="n">
-        <v>2309.120773429545</v>
+        <v>543.9910339966027</v>
       </c>
       <c r="E83" t="n">
-        <v>1770.874454926955</v>
+        <v>5.744715494011388</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>4603.992029671717</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7675161042054666</v>
+        <v>0.96308642113214</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.2324838957945334</v>
+        <v>-0.03691357886785995</v>
       </c>
       <c r="D84" t="n">
-        <v>2321.733761062687</v>
+        <v>559.793580766951</v>
       </c>
       <c r="E84" t="n">
-        <v>1767.044613882698</v>
+        <v>5.104433586960909</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>4620.434858349116</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7683814814769112</v>
+        <v>0.9668439965838946</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.2316185185230888</v>
+        <v>-0.03315600341610536</v>
       </c>
       <c r="D85" t="n">
-        <v>2334.361018185577</v>
+        <v>575.6608102907089</v>
       </c>
       <c r="E85" t="n">
-        <v>1763.229042328189</v>
+        <v>4.528834433321038</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>4636.877687026515</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7692419958917389</v>
+        <v>0.9702689913286912</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.2307580041082611</v>
+        <v>-0.02973100867130885</v>
       </c>
       <c r="D86" t="n">
-        <v>2347.002464527339</v>
+        <v>591.5870584358554</v>
       </c>
       <c r="E86" t="n">
-        <v>1759.427659992552</v>
+        <v>4.012253901068419</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>4653.320515703914</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7700976850546604</v>
+        <v>0.9733845586381754</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.2299023149453396</v>
+        <v>-0.02661544136182459</v>
       </c>
       <c r="D87" t="n">
-        <v>2359.658020438533</v>
+        <v>607.5670480810672</v>
       </c>
       <c r="E87" t="n">
-        <v>1755.640387226346</v>
+        <v>3.549414868880405</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>4669.763344381313</v>
       </c>
       <c r="B88" t="n">
-        <v>0.770948586195612</v>
+        <v>0.9762130129421165</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.229051413804388</v>
+        <v>-0.02378698705788351</v>
       </c>
       <c r="D88" t="n">
-        <v>2372.327606884962</v>
+        <v>623.5958760221811</v>
       </c>
       <c r="E88" t="n">
-        <v>1751.867144995377</v>
+        <v>3.135414132595216</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>4686.206173058712</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7717947361743427</v>
+        <v>0.9787757593692752</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.2282052638256573</v>
+        <v>-0.02122424063072481</v>
       </c>
       <c r="D89" t="n">
-        <v>2385.011145441546</v>
+        <v>639.6689985766029</v>
       </c>
       <c r="E89" t="n">
-        <v>1748.10785487456</v>
+        <v>2.765708009618294</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>4702.64900173611</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7726361714849348</v>
+        <v>0.9810932397376159</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.2273638285150652</v>
+        <v>-0.01890676026238414</v>
       </c>
       <c r="D90" t="n">
-        <v>2397.708558286266</v>
+        <v>655.7822161661115</v>
       </c>
       <c r="E90" t="n">
-        <v>1744.362439041884</v>
+        <v>2.436096921728364</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>4719.09183041351</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7734729282602606</v>
+        <v>0.983184893709248</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.2265270717397394</v>
+        <v>-0.016815106290752</v>
       </c>
       <c r="D91" t="n">
-        <v>2410.419768194203</v>
+        <v>671.9316571380732</v>
       </c>
       <c r="E91" t="n">
-        <v>1740.63082027242</v>
+        <v>2.142709216290498</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>4735.534659090908</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7743050422763724</v>
+        <v>0.985069133768867</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.2256949577236276</v>
+        <v>-0.01493086623113304</v>
       </c>
       <c r="D92" t="n">
-        <v>2423.144698531612</v>
+        <v>688.1137610634405</v>
       </c>
       <c r="E92" t="n">
-        <v>1736.912921932432</v>
+        <v>1.881984464259574</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>4751.977487768308</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7751325489568325</v>
+        <v>0.9867633326570594</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2248674510431675</v>
+        <v>-0.0132366673429406</v>
       </c>
       <c r="D93" t="n">
-        <v>2435.883273250116</v>
+        <v>704.3252617276175</v>
       </c>
       <c r="E93" t="n">
-        <v>1733.208667973536</v>
+        <v>1.650656451037023</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>4768.420316445707</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7759554833769777</v>
+        <v>0.9882838218882389</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.2240445166230223</v>
+        <v>-0.01171617811176107</v>
       </c>
       <c r="D94" t="n">
-        <v>2448.635416880923</v>
+        <v>720.5631700076742</v>
       </c>
       <c r="E94" t="n">
-        <v>1729.517982926944</v>
+        <v>1.445736053695491</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>4784.863145123106</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7767738802681257</v>
+        <v>0.9896459000037683</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.2232261197318743</v>
+        <v>-0.01035409999623171</v>
       </c>
       <c r="D95" t="n">
-        <v>2461.401054529153</v>
+        <v>736.8247568070765</v>
       </c>
       <c r="E95" t="n">
-        <v>1725.840791897774</v>
+        <v>1.264494175698204</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>4801.305973800505</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7775877740217181</v>
+        <v>0.9908638492505428</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2224122259782819</v>
+        <v>-0.009136150749457173</v>
       </c>
       <c r="D96" t="n">
-        <v>2474.1801118682</v>
+        <v>753.1075361971284</v>
       </c>
       <c r="E96" t="n">
-        <v>1722.177020559422</v>
+        <v>1.104444888351033</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>4817.748802477903</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7783971986934077</v>
+        <v>0.991950959430654</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.2216028013065923</v>
+        <v>-0.008049040569345967</v>
       </c>
       <c r="D97" t="n">
-        <v>2486.972515134188</v>
+        <v>769.4092488933061</v>
       </c>
       <c r="E97" t="n">
-        <v>1718.526595148013</v>
+        <v>0.963328907130176</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>4834.191631155303</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7792021880070857</v>
+        <v>0.9929195577355096</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.2207978119929143</v>
+        <v>-0.00708044226449045</v>
       </c>
       <c r="D98" t="n">
-        <v>2499.778191120482</v>
+        <v>785.7278461745168</v>
       </c>
       <c r="E98" t="n">
-        <v>1714.889442456906</v>
+        <v>0.8390975109414995</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>4850.634459832701</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7800027753588512</v>
+        <v>0.9937810434550137</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.2199972246411488</v>
+        <v>-0.006218956544986276</v>
       </c>
       <c r="D99" t="n">
-        <v>2512.597067172256</v>
+        <v>802.061474334454</v>
       </c>
       <c r="E99" t="n">
-        <v>1711.265489831281</v>
+        <v>0.729896993480601</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>4867.077288510101</v>
       </c>
       <c r="B100" t="n">
-        <v>0.780798993820926</v>
+        <v>0.9945459265363569</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.219201006179074</v>
+        <v>-0.005454073463643128</v>
       </c>
       <c r="D100" t="n">
-        <v>2525.429071181148</v>
+        <v>818.4084597366777</v>
       </c>
       <c r="E100" t="n">
-        <v>1707.654665162775</v>
+        <v>0.6340537183048518</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>4883.5201171875</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7815908761455128</v>
+        <v>0.9952238690551667</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2184091238544872</v>
+        <v>-0.004776130944833312</v>
       </c>
       <c r="D101" t="n">
-        <v>2538.274131579958</v>
+        <v>834.7672945288596</v>
       </c>
       <c r="E101" t="n">
-        <v>1704.056896884185</v>
+        <v>0.550059833087694</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/6_Delta_Analysis.xlsx
+++ b/DRM_Output/6_Delta_Analysis.xlsx
@@ -465,16 +465,16 @@
         <v>3255.680078125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001647910469285998</v>
+        <v>0.001647911006978043</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.998352089530714</v>
+        <v>-0.998352088993022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1108846617828272</v>
+        <v>0.1108847043935022</v>
       </c>
       <c r="E2" t="n">
-        <v>793.7336890285096</v>
+        <v>793.7336890711204</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>3272.122906802399</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002052383053884239</v>
+        <v>0.002052383695362659</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9979476169461158</v>
+        <v>-0.9979476163046374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1411985848111854</v>
+        <v>0.1411986370961795</v>
       </c>
       <c r="E3" t="n">
-        <v>777.3211742741387</v>
+        <v>777.3211743264242</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3288.565735479798</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002542275176274653</v>
+        <v>0.002542275936909478</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9974577248237253</v>
+        <v>-0.9974577240630905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1788464929541149</v>
+        <v>0.1788465567444764</v>
       </c>
       <c r="E4" t="n">
-        <v>760.9159935048833</v>
+        <v>760.9159935686735</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3305.008564157197</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003132302729658884</v>
+        <v>0.0031323036261431</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9968676972703411</v>
+        <v>-0.9968676963738569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225351477568621</v>
+        <v>0.2253515549590883</v>
       </c>
       <c r="E5" t="n">
-        <v>744.5196698120985</v>
+        <v>744.5196698894893</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>3321.451392834596</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003839008902388822</v>
+        <v>0.003839009952672929</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9961609910976111</v>
+        <v>-0.9961609900473271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2824934848156246</v>
+        <v>0.2824935781858375</v>
       </c>
       <c r="E6" t="n">
-        <v>728.1339831419468</v>
+        <v>728.1339832353169</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>3337.894221511995</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004680857333609048</v>
+        <v>0.004680858556796098</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.995319142666391</v>
+        <v>-0.9953191414432039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3523401510764099</v>
+        <v>0.3523402631108752</v>
       </c>
       <c r="E7" t="n">
-        <v>711.7610011308088</v>
+        <v>711.7610012428431</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>3354.337050189394</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005678305742350774</v>
+        <v>0.005678307158548486</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9943216942576493</v>
+        <v>-0.9943216928414516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4372790158223303</v>
+        <v>0.4372791495281341</v>
       </c>
       <c r="E8" t="n">
-        <v>695.4031113181554</v>
+        <v>695.4031114518616</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>3370.779878866793</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006853855430445576</v>
+        <v>0.006853857060572986</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9931461445695544</v>
+        <v>-0.993146142939427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5400507531388072</v>
+        <v>0.5400509118605363</v>
       </c>
       <c r="E9" t="n">
-        <v>679.063054378073</v>
+        <v>679.0630545367944</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>3387.222707544192</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008232072061563891</v>
+        <v>0.008232073927111108</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9917679279384362</v>
+        <v>-0.9917679260728889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6637829873048346</v>
+        <v>0.6637831747362561</v>
       </c>
       <c r="E10" t="n">
-        <v>662.7439579348397</v>
+        <v>662.7439581222711</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>3403.665536221591</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009839573263057396</v>
+        <v>0.009839575385798176</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9901604267369426</v>
+        <v>-0.9901604246142018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8120241832131327</v>
+        <v>0.8120244034040169</v>
       </c>
       <c r="E11" t="n">
-        <v>646.4493704533493</v>
+        <v>646.4493706735407</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>3420.10836489899</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01170497889574114</v>
+        <v>0.01170498129739946</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9882950211042588</v>
+        <v>-0.9882950187026005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9887770314254851</v>
+        <v>0.9887772887837798</v>
       </c>
       <c r="E12" t="n">
-        <v>630.183294624163</v>
+        <v>630.1832948815209</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>3436.551193576389</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01385882029612854</v>
+        <v>0.01385882299800185</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9861411797038715</v>
+        <v>-0.9861411770019981</v>
       </c>
       <c r="D13" t="n">
-        <v>1.198530682897903</v>
+        <v>1.198530982185709</v>
       </c>
       <c r="E13" t="n">
-        <v>613.9502195982359</v>
+        <v>613.9502198975242</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>3452.994022253788</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01633340541721634</v>
+        <v>0.01633340843975976</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9836665945827837</v>
+        <v>-0.9836665915602403</v>
       </c>
       <c r="D14" t="n">
-        <v>1.446291132530114</v>
+        <v>1.446291478853517</v>
       </c>
       <c r="E14" t="n">
-        <v>597.7551513704689</v>
+        <v>597.7551517167931</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>3469.436850931187</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01916263757287392</v>
+        <v>0.01916264093525134</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.980837362427126</v>
+        <v>-0.9808373590647487</v>
       </c>
       <c r="D15" t="n">
-        <v>1.737609006351676</v>
+        <v>1.737609405142919</v>
       </c>
       <c r="E15" t="n">
-        <v>581.603640566892</v>
+        <v>581.6036409656831</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>3485.879679608586</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02238178641595999</v>
+        <v>0.02238179013556956</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.97761821358404</v>
+        <v>-0.9776182098644305</v>
       </c>
       <c r="D16" t="n">
-        <v>2.078603976829783</v>
+        <v>2.078604433822633</v>
       </c>
       <c r="E16" t="n">
-        <v>565.5018068599711</v>
+        <v>565.5018073169635</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>3502.322508285985</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02602721083374508</v>
+        <v>0.02602721492572807</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.973972789166255</v>
+        <v>-0.9739727850742719</v>
       </c>
       <c r="D17" t="n">
-        <v>2.475985016766245</v>
+        <v>2.475985537962359</v>
       </c>
       <c r="E17" t="n">
-        <v>549.4563592225086</v>
+        <v>549.4563597437045</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>3518.765336963384</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03013603460209968</v>
+        <v>0.03013603907884312</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9698639653979003</v>
+        <v>-0.9698639609211569</v>
       </c>
       <c r="D18" t="n">
-        <v>2.937065706437977</v>
+        <v>2.937066298066441</v>
       </c>
       <c r="E18" t="n">
-        <v>533.4746112347816</v>
+        <v>533.4746118264097</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>3535.208165640783</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03474577687260771</v>
+        <v>0.03474578174325219</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9652542231273923</v>
+        <v>-0.9652542182567478</v>
       </c>
       <c r="D19" t="n">
-        <v>3.469773832529469</v>
+        <v>3.469774500996479</v>
       </c>
       <c r="E19" t="n">
-        <v>517.5644906834737</v>
+        <v>517.5644913519409</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>3551.650994318182</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03989394083984595</v>
+        <v>0.039893946109811</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.960106059160154</v>
+        <v>-0.960106053890189</v>
       </c>
       <c r="D20" t="n">
-        <v>4.082654561944167</v>
+        <v>4.082655313776598</v>
       </c>
       <c r="E20" t="n">
-        <v>501.7345427354894</v>
+        <v>501.7345434873223</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>3568.093822995581</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04561756521136193</v>
+        <v>0.04561757088190166</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.954382434788638</v>
+        <v>-0.9543824291180983</v>
       </c>
       <c r="D21" t="n">
-        <v>4.784866539133219</v>
+        <v>4.784867380913596</v>
       </c>
       <c r="E21" t="n">
-        <v>485.9939260352799</v>
+        <v>485.9939268770599</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>3584.53665167298</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05195274433983273</v>
+        <v>0.05195275040763465</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9480472556601672</v>
+        <v>-0.9480472495923653</v>
       </c>
       <c r="D22" t="n">
-        <v>5.586170341833025</v>
+        <v>5.586171280126848</v>
       </c>
       <c r="E22" t="n">
-        <v>470.3524011605805</v>
+        <v>470.3524020988743</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>3600.979480350379</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05893412403403402</v>
+        <v>0.05893413049087412</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.941065875965966</v>
+        <v>-0.9410658695091259</v>
       </c>
       <c r="D23" t="n">
-        <v>6.496908836103216</v>
+        <v>6.496909877381967</v>
       </c>
       <c r="E23" t="n">
-        <v>454.8203109774508</v>
+        <v>454.8203120187304</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>3617.422309027778</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06659438110178786</v>
+        <v>0.0665943879342533</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9334056188982122</v>
+        <v>-0.9334056120657467</v>
       </c>
       <c r="D24" t="n">
-        <v>7.527979095644667</v>
+        <v>7.527980246202532</v>
       </c>
       <c r="E24" t="n">
-        <v>439.4085525595938</v>
+        <v>439.4085537101523</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>3633.865137705177</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07496369555553536</v>
+        <v>0.07496370274482626</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9250363044444646</v>
+        <v>-0.9250362972551738</v>
       </c>
       <c r="D25" t="n">
-        <v>8.690795690250241</v>
+        <v>8.690796956115946</v>
       </c>
       <c r="E25" t="n">
-        <v>424.1285404768005</v>
+        <v>424.1285417426661</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>3650.307966382576</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08406922509495851</v>
+        <v>0.0840692326167784</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9159307749050415</v>
+        <v>-0.9159307673832215</v>
       </c>
       <c r="D26" t="n">
-        <v>9.99724530099212</v>
+        <v>9.997246687841312</v>
       </c>
       <c r="E26" t="n">
-        <v>408.9921614101431</v>
+        <v>408.9921627969925</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>3666.750795059975</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09393459194193082</v>
+        <v>0.09393459976647256</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9060654080580692</v>
+        <v>-0.9060654002335274</v>
       </c>
       <c r="D27" t="n">
-        <v>11.45963278195529</v>
+        <v>11.45963429501796</v>
       </c>
       <c r="E27" t="n">
-        <v>394.0117202137076</v>
+        <v>394.0117217267707</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>3683.193623737374</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1045793923182975</v>
+        <v>0.1045794004103318</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8954206076817024</v>
+        <v>-0.8954205995896682</v>
       </c>
       <c r="D28" t="n">
-        <v>13.09061895610517</v>
+        <v>13.09062060007636</v>
       </c>
       <c r="E28" t="n">
-        <v>379.1998777104591</v>
+        <v>379.1998793544299</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>3699.636452414773</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1160187388115738</v>
+        <v>0.1160187471306409</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8839812611884261</v>
+        <v>-0.8839812528693591</v>
       </c>
       <c r="D29" t="n">
-        <v>14.90315060207519</v>
+        <v>14.90315238102738</v>
       </c>
       <c r="E29" t="n">
-        <v>364.56958067903</v>
+        <v>364.5695824579821</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>3716.079281092172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1282628455608914</v>
+        <v>0.1282628540616</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8717371544391086</v>
+        <v>-0.8717371459384</v>
       </c>
       <c r="D30" t="n">
-        <v>16.91038325491809</v>
+        <v>16.91038517221847</v>
       </c>
       <c r="E30" t="n">
-        <v>350.1339846544734</v>
+        <v>350.1339865717732</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>3732.522109769571</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141316665617469</v>
+        <v>0.1413166742498971</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.858683334382531</v>
+        <v>-0.858683325750103</v>
       </c>
       <c r="D31" t="n">
-        <v>19.1255976027802</v>
+        <v>19.12559966101026</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9063703249367</v>
+        <v>335.9063723831664</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>3748.96493844697</v>
       </c>
       <c r="B32" t="n">
-        <v>0.155179589001358</v>
+        <v>0.1551795977115523</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.8448204109986419</v>
+        <v>-0.8448204022884477</v>
       </c>
       <c r="D32" t="n">
-        <v>21.56211040875814</v>
+        <v>21.56211260964574</v>
       </c>
       <c r="E32" t="n">
-        <v>321.9000544535156</v>
+        <v>321.9000566544037</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>3765.407767124369</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1698452089084984</v>
+        <v>0.1698452176390655</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8301547910915016</v>
+        <v>-0.8301547823609345</v>
       </c>
       <c r="D33" t="n">
-        <v>24.23318101886787</v>
+        <v>24.23318336322393</v>
       </c>
       <c r="E33" t="n">
-        <v>308.1282963862268</v>
+        <v>308.1282987305826</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>3781.850595801768</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1853011622463473</v>
+        <v>0.1853011709371254</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.8146988377536527</v>
+        <v>-0.8146988290628746</v>
       </c>
       <c r="D34" t="n">
-        <v>27.15191462936298</v>
+        <v>27.15191711703176</v>
       </c>
       <c r="E34" t="n">
-        <v>294.6042013193228</v>
+        <v>294.6042038069913</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>3798.293424479167</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2015290492264208</v>
+        <v>0.2015290578152211</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7984709507735792</v>
+        <v>-0.7984709421847789</v>
       </c>
       <c r="D35" t="n">
-        <v>30.33116357654797</v>
+        <v>30.33116620636497</v>
       </c>
       <c r="E35" t="n">
-        <v>281.3406215891082</v>
+        <v>281.3406242189262</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>3814.736253156566</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2185044351577135</v>
+        <v>0.2185044435811167</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7814955648422865</v>
+        <v>-0.7814955564188832</v>
       </c>
       <c r="D36" t="n">
-        <v>33.78342797709706</v>
+        <v>33.78343074686552</v>
       </c>
       <c r="E36" t="n">
-        <v>268.3500573122578</v>
+        <v>268.3500600820275</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>3831.179081833965</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2361969359098673</v>
+        <v>0.2361969441040604</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.7638030640901328</v>
+        <v>-0.7638030558959396</v>
       </c>
       <c r="D37" t="n">
-        <v>37.52075708490293</v>
+        <v>37.52075999137901</v>
       </c>
       <c r="E37" t="n">
-        <v>255.6445577426657</v>
+        <v>255.644560649142</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>3847.621910511364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2545703867957125</v>
+        <v>0.2545703946973484</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.7454296132042875</v>
+        <v>-0.7454296053026517</v>
       </c>
       <c r="D38" t="n">
-        <v>41.55465274053597</v>
+        <v>41.55465577942857</v>
       </c>
       <c r="E38" t="n">
-        <v>243.2356247208995</v>
+        <v>243.2356277597919</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>3864.064739188763</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2735830929068248</v>
+        <v>0.2735831004538875</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.7264169070931752</v>
+        <v>-0.7264168995461125</v>
       </c>
       <c r="D39" t="n">
-        <v>45.89597627111971</v>
+        <v>45.89597943710669</v>
       </c>
       <c r="E39" t="n">
-        <v>231.1341195740843</v>
+        <v>231.1341227400708</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>3880.507567866161</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2931881572699488</v>
+        <v>0.2931881644026085</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.7068118427300512</v>
+        <v>-0.7068118355973915</v>
       </c>
       <c r="D40" t="n">
-        <v>50.55486015231259</v>
+        <v>50.5548634390675</v>
       </c>
       <c r="E40" t="n">
-        <v>219.3501747778787</v>
+        <v>219.3501780646329</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>3896.950396543561</v>
       </c>
       <c r="B41" t="n">
-        <v>0.313333881621115</v>
+        <v>0.3133338882825533</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.686666118378885</v>
+        <v>-0.6866661117174466</v>
       </c>
       <c r="D41" t="n">
-        <v>55.54062567128085</v>
+        <v>55.5406290715182</v>
       </c>
       <c r="E41" t="n">
-        <v>207.8931116194476</v>
+        <v>207.8931150196854</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>3913.39322522096</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3339642331590011</v>
+        <v>0.333964239296192</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6660357668409989</v>
+        <v>-0.666035760703808</v>
       </c>
       <c r="D42" t="n">
-        <v>60.86170773198501</v>
+        <v>60.86171123751501</v>
       </c>
       <c r="E42" t="n">
-        <v>196.7713650027526</v>
+        <v>196.7713685082831</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>3929.836053898359</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3550193693756056</v>
+        <v>0.3550193749400354</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.6449806306243944</v>
+        <v>-0.6449806250599646</v>
       </c>
       <c r="D43" t="n">
-        <v>66.52558782429628</v>
+        <v>66.52559142609311</v>
       </c>
       <c r="E43" t="n">
-        <v>185.992416417665</v>
+        <v>185.9924200194614</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>3946.278882575758</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3764362120005424</v>
+        <v>0.3764362169488563</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.6235637879994576</v>
+        <v>-0.6235637830511437</v>
       </c>
       <c r="D44" t="n">
-        <v>72.53873603951274</v>
+        <v>72.53873972779479</v>
       </c>
       <c r="E44" t="n">
-        <v>175.5627359554824</v>
+        <v>175.5627396437644</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>3962.721711253157</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3981490602584833</v>
+        <v>0.3981490645530453</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.6018509397415167</v>
+        <v>-0.6018509354469547</v>
       </c>
       <c r="D45" t="n">
-        <v>78.90656286025296</v>
+        <v>78.90656662457172</v>
       </c>
       <c r="E45" t="n">
-        <v>165.4877340988237</v>
+        <v>165.4877378631427</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>3979.164539930555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420090233043335</v>
+        <v>0.4200902366526927</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.5799097669566651</v>
+        <v>-0.5799097633473073</v>
       </c>
       <c r="D46" t="n">
-        <v>85.6333812863179</v>
+        <v>85.63338511565735</v>
       </c>
       <c r="E46" t="n">
-        <v>155.7717238474902</v>
+        <v>155.771727676829</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>3995.607368607954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4421907292659807</v>
+        <v>0.4421907321652264</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.5578092707340192</v>
+        <v>-0.5578092678347737</v>
       </c>
       <c r="D47" t="n">
-        <v>92.7223796839769</v>
+        <v>92.72238356685557</v>
       </c>
       <c r="E47" t="n">
-        <v>146.4178935677496</v>
+        <v>146.4178974506281</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>4012.050197285354</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4643808955355974</v>
+        <v>0.464380897706621</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.5356191044644026</v>
+        <v>-0.5356191022933789</v>
       </c>
       <c r="D48" t="n">
-        <v>100.1756055683384</v>
+        <v>100.1756094929219</v>
       </c>
       <c r="E48" t="n">
-        <v>137.4282907747124</v>
+        <v>137.4282946992957</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>4028.493025962753</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4865910904814061</v>
+        <v>0.4865910919130382</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.5134089095185939</v>
+        <v>-0.5134089080869617</v>
       </c>
       <c r="D49" t="n">
-        <v>107.9939603511261</v>
+        <v>107.9939643053387</v>
       </c>
       <c r="E49" t="n">
-        <v>128.8038168801004</v>
+        <v>128.8038208343132</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>4044.935854640152</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5087523353990518</v>
+        <v>0.5087523360870954</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.4912476646009482</v>
+        <v>-0.4912476639129046</v>
       </c>
       <c r="D50" t="n">
-        <v>116.1772049131275</v>
+        <v>116.1772088847681</v>
       </c>
       <c r="E50" t="n">
-        <v>120.5442327647033</v>
+        <v>120.5442367363437</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>4061.37868331755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5307969414947769</v>
+        <v>0.5307969414419311</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.4692030585052231</v>
+        <v>-0.4692030585580689</v>
       </c>
       <c r="D51" t="n">
-        <v>124.7239756955589</v>
+        <v>124.7239796724134</v>
       </c>
       <c r="E51" t="n">
-        <v>112.6481748697361</v>
+        <v>112.6481788465903</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>4077.82151199495</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5526591047771322</v>
+        <v>0.5526591039928133</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4473408952228678</v>
+        <v>-0.4473408960071867</v>
       </c>
       <c r="D52" t="n">
-        <v>133.6318108507653</v>
+        <v>133.6318148207197</v>
       </c>
       <c r="E52" t="n">
-        <v>105.1131813475424</v>
+        <v>105.113185317497</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>4094.264340672348</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5742754605821978</v>
+        <v>0.574275459082262</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.4257245394178022</v>
+        <v>-0.425724540917738</v>
       </c>
       <c r="D53" t="n">
-        <v>142.8971858530372</v>
+        <v>142.8971898041864</v>
       </c>
       <c r="E53" t="n">
-        <v>97.93572767241653</v>
+        <v>97.93573162356552</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>4110.707169349747</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5955855907833528</v>
+        <v>0.5955855885897321</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4044144092166472</v>
+        <v>-0.4044144114102679</v>
       </c>
       <c r="D54" t="n">
-        <v>152.5155578471426</v>
+        <v>152.5155617678911</v>
       </c>
       <c r="E54" t="n">
-        <v>91.11127098912289</v>
+        <v>91.11127490987133</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>4127.149998027146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6165324778978412</v>
+        <v>0.6165324750381005</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3834675221021588</v>
+        <v>-0.3834675249618995</v>
       </c>
       <c r="D55" t="n">
-        <v>162.4814179073296</v>
+        <v>162.481421786491</v>
       </c>
       <c r="E55" t="n">
-        <v>84.63430237191051</v>
+        <v>84.63430625107139</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>4143.592826704546</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6370629015264925</v>
+        <v>0.6370628980333192</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3629370984735075</v>
+        <v>-0.3629371019666808</v>
       </c>
       <c r="D56" t="n">
-        <v>172.7883502944301</v>
+        <v>172.7883541213128</v>
       </c>
       <c r="E56" t="n">
-        <v>78.49840608161185</v>
+        <v>78.49840990849475</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>4160.035655381945</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6571277738169935</v>
+        <v>0.6571277697276325</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3428722261830065</v>
+        <v>-0.3428722302723675</v>
       </c>
       <c r="D57" t="n">
-        <v>183.4290977339115</v>
+        <v>183.4291014984019</v>
       </c>
       <c r="E57" t="n">
-        <v>72.6963248436939</v>
+        <v>72.69632860818433</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>4176.478484059344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6766824118934854</v>
+        <v>0.6766824072491309</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3233175881065146</v>
+        <v>-0.3233175927508691</v>
       </c>
       <c r="D58" t="n">
-        <v>194.3956316936383</v>
+        <v>194.3956353862659</v>
       </c>
       <c r="E58" t="n">
-        <v>67.22003012602181</v>
+        <v>67.22003381864943</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>4192.921312736742</v>
       </c>
       <c r="B59" t="n">
-        <v>0.695686746416542</v>
+        <v>0.6956867412616997</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.304313253583458</v>
+        <v>-0.3043132587383003</v>
       </c>
       <c r="D59" t="n">
-        <v>205.6792266163752</v>
+        <v>205.6792302283766</v>
       </c>
       <c r="E59" t="n">
-        <v>62.06079637136031</v>
+        <v>62.06079998336145</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>4209.364141414141</v>
       </c>
       <c r="B60" t="n">
-        <v>0.714105466601223</v>
+        <v>0.7141054609830552</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.285894533398777</v>
+        <v>-0.2858945390169448</v>
       </c>
       <c r="D60" t="n">
-        <v>217.2705370579965</v>
+        <v>217.2705405813622</v>
       </c>
       <c r="E60" t="n">
-        <v>57.20927813558251</v>
+        <v>57.20928165894861</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>4225.80697009154</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7319081031037175</v>
+        <v>0.7319080970713826</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2680918968962825</v>
+        <v>-0.2680919029286174</v>
       </c>
       <c r="D61" t="n">
-        <v>229.1596766967505</v>
+        <v>229.159680124264</v>
       </c>
       <c r="E61" t="n">
-        <v>52.65558909693777</v>
+        <v>52.65559252445109</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>4242.249798768939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7490690511699031</v>
+        <v>0.7490690447739019</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2509309488300969</v>
+        <v>-0.2509309552260981</v>
       </c>
       <c r="D62" t="n">
-        <v>241.3362982103858</v>
+        <v>241.3363015356513</v>
       </c>
       <c r="E62" t="n">
-        <v>48.38938193317381</v>
+        <v>48.38938525843923</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>4258.692627446339</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7655675373065698</v>
+        <v>0.7655675305981089</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2344324626934302</v>
+        <v>-0.2344324694018911</v>
       </c>
       <c r="D63" t="n">
-        <v>253.7896730645753</v>
+        <v>253.7896762820324</v>
       </c>
       <c r="E63" t="n">
-        <v>44.39992810996375</v>
+        <v>44.39993132742154</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>4275.135456123737</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7813875334771925</v>
+        <v>0.7813875265075746</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2186124665228075</v>
+        <v>-0.2186124734924254</v>
       </c>
       <c r="D64" t="n">
-        <v>266.5087703159529</v>
+        <v>266.5087734208878</v>
       </c>
       <c r="E64" t="n">
-        <v>40.6761966839432</v>
+        <v>40.67619978887797</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>4291.578284801137</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796517623431952</v>
+        <v>0.7965176162520012</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.203482376568048</v>
+        <v>-0.2034823837479988</v>
       </c>
       <c r="D65" t="n">
-        <v>279.4823336041063</v>
+        <v>279.4823365926418</v>
       </c>
       <c r="E65" t="n">
-        <v>37.20693129469669</v>
+        <v>37.20693428323261</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>4308.021113478535</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8109508262532323</v>
+        <v>0.8109508189127623</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.1890491737467677</v>
+        <v>-0.1890491810872377</v>
       </c>
       <c r="D66" t="n">
-        <v>292.6989555866603</v>
+        <v>292.6989584557505</v>
       </c>
       <c r="E66" t="n">
-        <v>33.98072459985258</v>
+        <v>33.98072746894275</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>4324.463942155934</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8246843825338568</v>
+        <v>0.8246843750811874</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1753156174661432</v>
+        <v>-0.1753156249188126</v>
       </c>
       <c r="D67" t="n">
-        <v>306.1471491581628</v>
+        <v>306.1471519055672</v>
       </c>
       <c r="E67" t="n">
-        <v>30.98608949395532</v>
+        <v>30.98609224135987</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>4340.906770833333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8377195088096923</v>
+        <v>0.8377195012912182</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1622804911903077</v>
+        <v>-0.1622804987087818</v>
       </c>
       <c r="D68" t="n">
-        <v>319.8154148843341</v>
+        <v>319.8154175085929</v>
       </c>
       <c r="E68" t="n">
-        <v>28.21152654272839</v>
+        <v>28.21152916698736</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>4357.349599510732</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8500611259481243</v>
+        <v>0.8500611184079403</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1499388740518757</v>
+        <v>-0.1499388815920597</v>
       </c>
       <c r="D69" t="n">
-        <v>333.692304176579</v>
+        <v>333.6923066769764</v>
       </c>
       <c r="E69" t="n">
-        <v>25.64558715757403</v>
+        <v>25.64558965797096</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>4373.792428188131</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8617175671583623</v>
+        <v>0.8617175596379463</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1382824328416377</v>
+        <v>-0.1382824403620537</v>
       </c>
       <c r="D70" t="n">
-        <v>347.7664778251883</v>
+        <v>347.7664802017111</v>
       </c>
       <c r="E70" t="n">
-        <v>23.27693212878432</v>
+        <v>23.2769345053066</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>4390.23525686553</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8727002711500298</v>
+        <v>0.8727002636879836</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1272997288499702</v>
+        <v>-0.1272997363120164</v>
       </c>
       <c r="D71" t="n">
-        <v>362.0267596018775</v>
+        <v>362.026761855172</v>
       </c>
       <c r="E71" t="n">
-        <v>21.094385228075</v>
+        <v>21.09438748136949</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>4406.678085542929</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8830234657356113</v>
+        <v>0.8830234583674595</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1169765342643887</v>
+        <v>-0.1169765416325405</v>
       </c>
       <c r="D72" t="n">
-        <v>376.4621847313533</v>
+        <v>376.4621868626773</v>
       </c>
       <c r="E72" t="n">
-        <v>19.08698168015201</v>
+        <v>19.08698381147542</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>4423.120914220328</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8927038468637408</v>
+        <v>0.8927038396217863</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1072961531362592</v>
+        <v>-0.1072961603782137</v>
       </c>
       <c r="D73" t="n">
-        <v>391.0620431162561</v>
+        <v>391.0620451274212</v>
       </c>
       <c r="E73" t="n">
-        <v>17.24401138765541</v>
+        <v>17.24401339882024</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>4439.563742897727</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9017602576981396</v>
+        <v>0.9017602506113719</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.09823974230186039</v>
+        <v>-0.09823974938862812</v>
       </c>
       <c r="D74" t="n">
-        <v>405.8159172788187</v>
+        <v>405.8159191721438</v>
       </c>
       <c r="E74" t="n">
-        <v>15.55505687281953</v>
+        <v>15.55505876614421</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>4456.006571575126</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9102133719353704</v>
+        <v>0.9102133650294253</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.08978662806462956</v>
+        <v>-0.08978663497057471</v>
       </c>
       <c r="D75" t="n">
-        <v>420.7137150551057</v>
+        <v>420.7137168333584</v>
       </c>
       <c r="E75" t="n">
-        <v>14.01002597170742</v>
+        <v>14.01002774995987</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>4472.449400252525</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9180853850973519</v>
+        <v>0.9180853783945169</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.08191461490264806</v>
+        <v>-0.08191462160548313</v>
       </c>
       <c r="D76" t="n">
-        <v>435.7456971428524</v>
+        <v>435.7456988091935</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5991793820545</v>
+        <v>12.59918104839522</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>4488.892228929924</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9253997170549276</v>
+        <v>0.9253997105741909</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.07460028294507237</v>
+        <v>-0.0746002894258091</v>
       </c>
       <c r="D77" t="n">
-        <v>450.9024996614926</v>
+        <v>450.902501219422</v>
       </c>
       <c r="E77" t="n">
-        <v>11.31315322329556</v>
+        <v>11.31315478122553</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>4505.335057607323</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9321807285489903</v>
+        <v>0.9321807223061261</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.06781927145100974</v>
+        <v>-0.06781927769387386</v>
       </c>
       <c r="D78" t="n">
-        <v>466.1751519324603</v>
+        <v>466.1751533857646</v>
       </c>
       <c r="E78" t="n">
-        <v>10.14297681686554</v>
+        <v>10.14297827016935</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>4521.777886284722</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9384534539868551</v>
+        <v>0.9384534479945433</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.06154654601314491</v>
+        <v>-0.06154655200545667</v>
       </c>
       <c r="D79" t="n">
-        <v>481.5550897293142</v>
+        <v>481.5550910820125</v>
       </c>
       <c r="E79" t="n">
-        <v>9.080085936320302</v>
+        <v>9.080087289018479</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>4538.220714962121</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9442433523136144</v>
+        <v>0.9442433465815864</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05575664768638555</v>
+        <v>-0.05575665341841363</v>
       </c>
       <c r="D80" t="n">
-        <v>497.0341642807261</v>
+        <v>497.0341655370221</v>
       </c>
       <c r="E80" t="n">
-        <v>8.116331810331957</v>
+        <v>8.116333066628499</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>4554.66354363952</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9495760772995764</v>
+        <v>0.9495760718347851</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.05042392270042362</v>
+        <v>-0.0504239281652149</v>
       </c>
       <c r="D81" t="n">
-        <v>512.604647335188</v>
+        <v>512.6046484994235</v>
       </c>
       <c r="E81" t="n">
-        <v>7.243986187395677</v>
+        <v>7.243987351630523</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>4571.106372316919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9544772681526168</v>
+        <v>0.9544772629594243</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0455227318473832</v>
+        <v>-0.04552273704057574</v>
       </c>
       <c r="D82" t="n">
-        <v>528.2592326147401</v>
+        <v>528.2592336913472</v>
       </c>
       <c r="E82" t="n">
-        <v>6.455742789548765</v>
+        <v>6.4557438661557</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>4587.549200994318</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9589723609639975</v>
+        <v>0.9589723560443759</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.04102763903600248</v>
+        <v>-0.04102764395562408</v>
       </c>
       <c r="D83" t="n">
-        <v>543.9910339966027</v>
+        <v>543.9910349900665</v>
       </c>
       <c r="E83" t="n">
-        <v>5.744715494011388</v>
+        <v>5.744716487475387</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>4603.992029671717</v>
       </c>
       <c r="B84" t="n">
-        <v>0.96308642113214</v>
+        <v>0.9630864164858823</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.03691357886785995</v>
+        <v>-0.03691358351411766</v>
       </c>
       <c r="D84" t="n">
-        <v>559.793580766951</v>
+        <v>559.7935816817708</v>
       </c>
       <c r="E84" t="n">
-        <v>5.104433586960909</v>
+        <v>5.104434501781554</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>4620.434858349116</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9668439965838946</v>
+        <v>0.9668439922088296</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.03315600341610536</v>
+        <v>-0.03315600779117045</v>
       </c>
       <c r="D85" t="n">
-        <v>575.6608102907089</v>
+        <v>575.6608111313658</v>
       </c>
       <c r="E85" t="n">
-        <v>4.528834433321038</v>
+        <v>4.528835273977791</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>4636.877687026515</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9702689913286912</v>
+        <v>0.9702689872209002</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02973100867130885</v>
+        <v>-0.02973101277909984</v>
       </c>
       <c r="D86" t="n">
-        <v>591.5870584358554</v>
+        <v>591.5870592067781</v>
       </c>
       <c r="E86" t="n">
-        <v>4.012253901068419</v>
+        <v>4.01225467199049</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>4653.320515703914</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9733845586381754</v>
+        <v>0.9733845547922071</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02661544136182459</v>
+        <v>-0.02661544520779291</v>
       </c>
       <c r="D87" t="n">
-        <v>607.5670480810672</v>
+        <v>607.5670487866059</v>
       </c>
       <c r="E87" t="n">
-        <v>3.549414868880405</v>
+        <v>3.549415574419996</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>4669.763344381313</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9762130129421165</v>
+        <v>0.9762130093511974</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.02378698705788351</v>
+        <v>-0.02378699064880263</v>
       </c>
       <c r="D88" t="n">
-        <v>623.5958760221811</v>
+        <v>623.5958766665881</v>
       </c>
       <c r="E88" t="n">
-        <v>3.135414132595216</v>
+        <v>3.135414777003021</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>4686.206173058712</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9787757593692752</v>
+        <v>0.978775756025512</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02122424063072481</v>
+        <v>-0.02122424397448797</v>
       </c>
       <c r="D89" t="n">
-        <v>639.6689985766029</v>
+        <v>639.6689991640096</v>
       </c>
       <c r="E89" t="n">
-        <v>2.765708009618294</v>
+        <v>2.765708597024712</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>4702.64900173611</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9810932397376159</v>
+        <v>0.9810932366321896</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01890676026238414</v>
+        <v>-0.01890676336781039</v>
       </c>
       <c r="D90" t="n">
-        <v>655.7822161661115</v>
+        <v>655.7822167005088</v>
       </c>
       <c r="E90" t="n">
-        <v>2.436096921728364</v>
+        <v>2.436097456126049</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>4719.09183041351</v>
       </c>
       <c r="B91" t="n">
-        <v>0.983184893709248</v>
+        <v>0.9831848908325963</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.016815106290752</v>
+        <v>-0.0168151091674037</v>
       </c>
       <c r="D91" t="n">
-        <v>671.9316571380732</v>
+        <v>671.9316576233036</v>
       </c>
       <c r="E91" t="n">
-        <v>2.142709216290498</v>
+        <v>2.142709701520459</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>4735.534659090908</v>
       </c>
       <c r="B92" t="n">
-        <v>0.985069133768867</v>
+        <v>0.9850691311108549</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.01493086623113304</v>
+        <v>-0.01493086888914508</v>
       </c>
       <c r="D92" t="n">
-        <v>688.1137610634405</v>
+        <v>688.1137615031816</v>
       </c>
       <c r="E92" t="n">
-        <v>1.881984464259574</v>
+        <v>1.881984904001115</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>4751.977487768308</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9867633326570594</v>
+        <v>0.9867633302071369</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.0132366673429406</v>
+        <v>-0.01323666979286309</v>
       </c>
       <c r="D93" t="n">
-        <v>704.3252617276175</v>
+        <v>704.3252621253782</v>
       </c>
       <c r="E93" t="n">
-        <v>1.650656451037023</v>
+        <v>1.650656848798633</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>4768.420316445707</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9882838218882389</v>
+        <v>0.9882838196355846</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01171617811176107</v>
+        <v>-0.01171618036441535</v>
       </c>
       <c r="D94" t="n">
-        <v>720.5631700076742</v>
+        <v>720.56317036679</v>
       </c>
       <c r="E94" t="n">
-        <v>1.445736053695491</v>
+        <v>1.445736412810362</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>4784.863145123106</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9896459000037683</v>
+        <v>0.9896458979374189</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01035409999623171</v>
+        <v>-0.01035410206258114</v>
       </c>
       <c r="D95" t="n">
-        <v>736.8247568070765</v>
+        <v>736.8247571306988</v>
       </c>
       <c r="E95" t="n">
-        <v>1.264494175698204</v>
+        <v>1.26449449931971</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>4801.305973800505</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9908638492505428</v>
+        <v>0.9908638473595093</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.009136150749457173</v>
+        <v>-0.009136152640490725</v>
       </c>
       <c r="D96" t="n">
-        <v>753.1075361971284</v>
+        <v>753.1075364882295</v>
       </c>
       <c r="E96" t="n">
-        <v>1.104444888351033</v>
+        <v>1.104445179452341</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>4817.748802477903</v>
       </c>
       <c r="B97" t="n">
-        <v>0.991950959430654</v>
+        <v>0.9919509577040234</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.008049040569345967</v>
+        <v>-0.008049042295976583</v>
       </c>
       <c r="D97" t="n">
-        <v>769.4092488933061</v>
+        <v>769.4092491546794</v>
       </c>
       <c r="E97" t="n">
-        <v>0.963328907130176</v>
+        <v>0.9633291685040106</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>4834.191631155303</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9929195577355096</v>
+        <v>0.9929195561625336</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.00708044226449045</v>
+        <v>-0.007080443837466421</v>
       </c>
       <c r="D98" t="n">
-        <v>785.7278461745168</v>
+        <v>785.7278464087781</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8390975109414995</v>
+        <v>0.8390977452025368</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>4850.634459832701</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9937810434550137</v>
+        <v>0.9937810420251842</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.006218956544986276</v>
+        <v>-0.006218957974815753</v>
       </c>
       <c r="D99" t="n">
-        <v>802.061474334454</v>
+        <v>802.0614745440421</v>
       </c>
       <c r="E99" t="n">
-        <v>0.729896993480601</v>
+        <v>0.7298972030684929</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>4867.077288510101</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9945459265363569</v>
+        <v>0.9945459252394695</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.005454073463643128</v>
+        <v>-0.005454074760530503</v>
       </c>
       <c r="D100" t="n">
-        <v>818.4084597366777</v>
+        <v>818.4084599238622</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6340537183048518</v>
+        <v>0.6340539054890151</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>4883.5201171875</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9952238690551667</v>
+        <v>0.9952238678813723</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.004776130944833312</v>
+        <v>-0.004776132118627707</v>
       </c>
       <c r="D101" t="n">
-        <v>834.7672945288596</v>
+        <v>834.7672946957446</v>
       </c>
       <c r="E101" t="n">
-        <v>0.550059833087694</v>
+        <v>0.5500599999725928</v>
       </c>
     </row>
   </sheetData>
